--- a/deuChatbot/research_result/results/bleu_score/bleu_version_1(3500_100).xlsx
+++ b/deuChatbot/research_result/results/bleu_score/bleu_version_1(3500_100).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D204"/>
+  <dimension ref="A1:D305"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6047,61 +6047,3417 @@
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>GPT-4o-mini Average</t>
+          <t>Qwen2.5-7B-instruct</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>디자인조형학과의 실기시험에 대한 정보는 다음과 같습니다:
+ 모집단위 및 실기종목
+- 모집단위: 시각디자인, 산업디자인, 공예디자인
+- 실기종목: 기초디자인, 사고의 전환
+종목별 배점(비율)
+- 배점 : 700점 (70%)
+실기종목별 준비물, 실기주제, 화지크기 및 시험시간
+1. 기초디자인
+- 준비물 : 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구
+- 실기주제 : 주제A, 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨 (예시: 잠자리와 저울)
+- 주제A: 잠자리, 무궁화, 피망, 고양이, 양파, 달팽이, 오렌지
+- 주제B: 악보, 줄자, 스카치테이프, 자물쇠, 반코팅장갑, 저울, 얼음
+- 조건: 제공된 사물과 이미지 이외의 형상은 표현하지 마시오. 제공된 사물은 모두 1회 이상 표현하시오. 제공된 사물의 색상은 변경하지 마시오.
+- 화지크기 : 켄트지 3절
+- 시험시간 : 5시간
+2.사고의 전환
+- 준비물: 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구
+- 실기주제 : 주제A, 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨 (예시: 콜라병과 계절)
+- 주제A: 콜라병, 포카리스웨트(캔), 마스크, 시계, 맥가이버 칼
+- 주제B: 바이러스, 자유, 여행, 계절, 꿈
+- 화지크기: 켄트지 2절
+- 시험시간: 5시간
+이와 같은 정보는 디자인조형학과 실기시험을 준비하는 데 중요한 요소들입니다. 추가적인 정보나 문의사항이 있다면 "https://ipsi.deu.ac.kr/main.do"를 방문하시기 바랍니다.</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t xml:space="preserve"> 제공된 정보에는 디자인조형학과의 실기시험에 대한 구체적인 내용이 포함되어 있지 않습니다. 디자인조형학과는 시각디자인, 산업디자인, 공예디자인 등 다양한 분야를 다루므로 실기시험의 내용은 해당 학과의 특성에 따라 달라질 수 있습니다.
+일반적으로 디자인 관련 학과의 실기시험은 다음과 같은 요소들을 포함할 수 있습니다:
+1. 그림 그리기: 색채감각, 형태 이해력 등을 평가하기 위해 자유로운 주제나 주어진 테마에 따른 그림을 제작합니다.
+2. 디자인 작업: 제품 디자인이나 패키지 디자인 등 특정 주제에 대한 실제 디자인 작업을 수행합니다.
+3. 공예 기술: 조각, 청동활강, 유리공예 등의 공예 기술 실력을 평가하기 위해 관련 작업을 수행합니다.
+4. 컴퓨터 그래픽: 디지털 도구를 활용한 디자인 작업 능력을 평가하기 위해 캐릭터 디자인, 포스터 제작 등 다양한 과제를 수행합니다.
+5. 창의력과 표현력: 새로운 아이디어를 발굴하고 이를 효과적으로 표현하는 능력을 평가합니다.
+6. 기술적 정확성: 작업의 세밀한 부분까지 정확하게 완성할 수 있는 능력을 평가합니다.
+7. 시간 관리: 주어진 시간 내에 효율적으로 작업을 수행할 수 있는 능력을 평가합니다.
+디자인조형학과의 실기시험은 이러한 요소들을 종합적으로 평가하기 위해 여러 가지 과제를 수행하게 됩니다. 정확한 시험 내용과 절차는 동의대학교에서 공식 발표하는 정보를 참고해야 합니다.</t>
         </is>
       </c>
       <c r="D202" t="n">
-        <v>0.3551587308263098</v>
+        <v>0.2617464935595809</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>Google Gemma-2-9b-it Average</t>
+          <t>Qwen2.5-7B-instruct</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>디자인조형학과의 실기종목, 준비물, 실기주제, 화지크기, 시간에 대한 정보는 다음과 같습니다:
+1.실기종목: 기초디자인
+- 준비물: 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구
+- 실기주제: 주제A, 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨 (예시: 잠자리와 저울)
+- 주제A: 잠자리, 무궁화, 피망, 고양이, 양파, 달팽이, 오렌지
+- 주제B: 악보, 줄자, 스카치테이프, 자물쇠, 반코팅장갑, 저울, 얼음
+- 조건: 제공된 사물과 이미지 이외의 형상은 표현하지 마시오. 제공된 사물은 모두 1회 이상 표현하시오. 제공된 사물의 색상은 변경하지 마시오.
+- 화지크기: 켄트지 3절
+- 시간: 5시간
+2.실기종목: 사고의 전환
+- 준비물: 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구
+- 실기주제: 주제A, 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨 (예시: 콜라병과 계절)
+- 주제A: 콜라병, 포카리스웨트(캔), 마스크, 시계, 맥가이버 칼
+- 주제B: 바이러스, 자유, 여행, 계절, 꿈
+- 화지크기: 켄트지 2절
+- 시간: 5시간</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>디자인조형학과의 실기 종목은 시각디자인, 산업디자인, 공예디자인 중 택1입니다.
+- **시각디자인**:
+  - **준비물**: 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구
+  - **실기주제**: 주제A와 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨 (예시: 잠자리와 저울)
+    - 주제A: 잠자리, 무궁화, 피망, 고양이, 양파, 달팽이, 오렌지
+    - 주제B: 악보, 줄자, 스카치테이프, 자물쇠, 반코팅장갑, 저울, 얼음
+  - **화지크기**: 켄트지3절
+  - **시간**: 5시간
+- **산업디자인**:
+  - **준비물**: 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구
+  - **실기주제**: 주제A와 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨 (예시: 콜라병과 계절)
+    - 주제A: 콜라병, 포카리스웨트(캔), 마스크, 시계, 맥가이버 칼
+    - 주제B: 바이러스, 자유, 여행, 계절, 꿈
+  - **화지크기**: 켄트지2절
+  - **시간**: 5시간
+- **공예디자인**:
+  - **준비물**: 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구 (공예 관련 재료도 준비해야 함)
+  - **실기주제**: 당일 추첨
+  - **화지크기**: 켄트지3절
+  - **시간**: 5시간
+각 종목은 당일 실시되며, 주제는 당일 추첨을 통해 결정됩니다.</t>
         </is>
       </c>
       <c r="D203" t="n">
-        <v>0.2368359587976734</v>
+        <v>0.6077139351170463</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>경기지도학과 모집종목별 인정대회는 다음과 같습니다:
+배드민턴(남)
+- 한국중·고연맹회장기전국학생선수권대회
+- 대한배드민턴협회장기전국종별배드민턴선수권대회
+- 전국학교대항배드민턴선수권대회
+- 전국종별배드민턴선수권대회
+- 전국연맹종별배드민턴선수권대회
+- 전국체육대회
+- 각종국제대회
+- 주니어국제대회(국가대표팀, 주니어팀 소속으로 출전한 대회만 인정)
+- 광역시·도 협회장기 종별대회
+축구(남)
+- 춘계한국고등학교축구연맹전
+- 추계한국고등학교축구연맹전
+- 대한축구협회장배전국고등학교축구대회
+- 문화체육관광부장관기전국고등학교축구대회
+- 문화체육관광부장관배전국고등학교축구대회
+- 백운기전국고등학교축구대회
+- 전국고등축구리그(권역별고교축구리그)
+- 전국고등축구리그왕중왕전
+- 무학기전국고등학교축구대회
+- 청룡기전국고등학교축구대회
+- 백록기전국고등학교축구대회
+- 금강대기전국고등학교축구대회
+- 대통령금배전국고등학교축구대회
+- 금석배전국고등학생축구대회
+- 부산MBC전국고등학생축구대회
+- K리그 U18 챔피언십
+- K리그 U18 챔피언십왕중왕전</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 경기지도학과 모집종목별 인정대회에 다음과 같은 대회들이 포함되어 있습니다:
+배드민턴(남):
+- 한국중·고연맹회장기전국학생선수권대회
+- 대한배드민턴협회장기전국종별배드민턴선수권대회 
+- 전국학교대항배드민턴선수권대회
+- 전국종별배드민턴선수권대회
+- 전국연맹종별배드민턴선수권대회
+- 전국체육대회
+- 각종국제대회(주니어국제대회)
+- 광역시·도 협회장기 종별대회
+축구(남):
+- 춘계한국고등학교축구연맹전
+- 추계한국고등학교축구연맹전
+- 대한축구협회장배전국고등학교축구대회
+- 문화체육관광부장관기전국고등학교축구대회
+- 문화체육관광부장관배전국고등학교축구대회
+- 백운기전국고등학교축구대회
+- 전국고등축구리그(권역별고교축구리그)
+- 전국고등축구리그왕중왕전
+- 무학기전국고등학교축구대회
+- 청룡기전국고등학교축구대회
+- 백록기전국고등학교축구대회
+- 금강대기전국고등학교축구대회
+- 대통령금배전국고등학교축구대회
+- 금석배전국고등학생축구대회
+- 부산MBC전국고등학생축구대회
+- K리그 U18 챔피언십
+- K리그 U18 챔피언십왕중왕전</t>
+        </is>
+      </c>
+      <c r="D204" t="n">
+        <v>0.9390580355841697</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 기초디자인 실기시험 주제는 다음과 같습니다:
+- 주제A: 잠자리, 무궁화, 피망, 고양이, 양파, 달팽이, 오렌지
+- 주제B: 악보, 줄자, 스카치테이프, 자물쇠, 반코팅장갑, 저울, 얼음
+시험 당일에는 주제A와 주제B에서 각각 1개씩 선정하여 연결된 주제를 추첨하게 됩니다. 예시로는 "잠자리와 저울"이 있습니다.</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>依据提供的信息，设计造型学部的基础设计实践考试包含以下主题：
+1. 前车踢（右脚、左脚）2次实施
+2. 回旋踢（右脚、左脚）2次实施
+3. 侧踢（右脚、左脚）2次实施
+这些动作都是以"前车踢"、"回旋踢"和"侧踢"的形式进行两次，分别用右脚和左脚完成。</t>
+        </is>
+      </c>
+      <c r="D205" t="n">
+        <v>0.04521230639358139</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>아니요. 학생부 교과 전형에서는 출결 점수가 반영되지 않습니다.</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>从提供的信息中，没有直接提到东义大学学生学科目入学考试是否考虑出勤记录。但是根据补充内容中的提示：
+[표 추가내용]
+```
+학생부 교과성적 반영 방법은 ‘40페이지 Ⅵ. 학생부 교과성적 반영방법’ 참조
+출결상황 반영방법은 ’42페이지 Ⅵ. 학생부 교과성적 반영방법 5. 기타사항‘ 참조
+```
+这表明出勤记录的评分方法可以在第40页的“VI. 学生学科目成绩评价方法”和第42页的“VI. 其他事项”中找到。因此，可以推断东义大学的学生学科目入学考试确实考虑出勤记录，但具体的评分比例或方式需要参考上述页面的内容。
+所以答案是：是的，东义大学学生学科目入学考试考虑出勤记录，但具体如何评分请参阅相关文件中的详细说明。</t>
+        </is>
+      </c>
+      <c r="D206" t="n">
+        <v>0.0001319915590966394</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>인문사회과학대학의 국어국문학과에서 가군 일반학생 전형으로 17명을 모집합니다.</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>17명을 모집합니다.
+이 정보는 다음과 같은 데이터에서 얻었습니다:
+```markdown
+[표 내용]
+```
+인문사회과학대학 / 인문사회 / 국어국문학과 - 교직 / 17 /
+```
+이 표에서는 각 단과대학, 계열, 모집단위 및 해당 모집단위의 모집인원을 나열하고 있습니다. 특정한 경우인 "인문사회과학대학 / 인문사회 / 국어국문학과 - 교직"은 가군 수능(일반학생전형)으로 17명을 모집한다는 것을 나타냅니다.</t>
+        </is>
+      </c>
+      <c r="D207" t="n">
+        <v>0.01132308231721643</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 인문사회과학대학 영어영문학과의 경우, 다군 일반학생 전형을 통해 총 28명의 신입생을 선발합니다.</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>28명을 모집합니다.
+인문사회과학대학 / 인문사회 / 영어영문학과 - 교직 / 28 /
+이 정보는 "다군 수능(일반학생전형) 모집단위 및 모집인원" 표에서 얻었습니다.</t>
+        </is>
+      </c>
+      <c r="D208" t="n">
+        <v>0.2577585946793442</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 의료보건생활대학 간호학과의 경우, 나군 일반학생 전형을 통해 총 22명의 신입생을 선발합니다.</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>110명입니다.
+의료보건생활대학 간호학과의 나군(일반학생) 전형에서 모집 인원은 110명입니다.</t>
+        </is>
+      </c>
+      <c r="D209" t="n">
+        <v>0.4490247302685647</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>수능 영어영역 등급에 따른 점수는 다음과 같습니다:
+- 1등급: 139점
+- 2등급: 131점
+- 3등급: 123점
+- 4등급: 115점
+- 5등급: 107점
+- 6등급: 99점
+- 7등급: 91점
+- 8등급: 83점
+- 9등급: 75점</t>
+        </is>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>以下是根据韩国语指令整理的英语等级对应的分数表：
+| 等级 | 分数 |
+|------|------|
+| 1    | 139  |
+| 2    | 131  |
+| 3    | 123  |
+| 4    | 115  |
+| 5    | 107  |
+| 6    | 99   |
+| 7    | 91   |
+| 8    | 83   |
+| 9    | 75   |
+这个表格显示了韩国大学入学考试（수능）中英语等级与对应分数之间的关系。</t>
+        </is>
+      </c>
+      <c r="D210" t="n">
+        <v>0.1982442699773433</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>아니요, 예술고 학생은 나군 학생부교과 농어촌학생전형으로 지원할 수 없습니다. 지원자격에 따르면 농어촌지역 또는 도서·벽지에 소재한 특수목적고 중 과학고, 국제고, 외국어고, 체육고, 예술고 출신자는 지원할 수 없습니다.</t>
+        </is>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 예술고 학생은 나군 학생부교과 농어촌학생전형으로 지원할 수 없습니다. 
+[표 추가내용]에 따르면, "농어촌지역 또는 도서·벽지에 소재한 특수목적고 중 과학고, 국제고, 외국어고, 체육고, 예술고 출신자는 지원할 수 없습니다."라고 명시되어 있습니다.
+따라서 예술고 학생은 농어촌학생전형으로 지원하기 위해서는 특수목적고가 아닌 일반고에서 6년 과정 또는 12년 과정을 이수한 자여야 합니다.</t>
+        </is>
+      </c>
+      <c r="D211" t="n">
+        <v>0.441059492025073</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>레저스포츠학과 여자 제자리 멀리뛰기 4등급 기록과 배점은 다음과 같습니다:
+- 기록: 218~221 cm
+- 배점: 275점</t>
+        </is>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>레저스포츠학과 여자 제자리 멀리뛰기 4등급의 기록은 218~221cm이며, 해당 등급의 배점은 275점입니다.</t>
+        </is>
+      </c>
+      <c r="D212" t="n">
+        <v>0.5916387950915588</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>경기지도학과의 출결 반영 비율은 12%입니다.</t>
+        </is>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 동의대학교 경기지도학과에서 실기/실적(경기실적우수자전형)의 전형요소 중 출결의 반영비율은 12%입니다.
+이 정보는 다음과 같은 표에서 얻었습니다:
+[나군 실기/실적(경기실적우수자전형) 전형요소 반영비율]
+```
+경기지도학과 / { 18% /  12% /  70% / }
+```
+여기서 세 번째 항목인 `12%`가 출결의 반영 비율을 나타냅니다.</t>
+        </is>
+      </c>
+      <c r="D213" t="n">
+        <v>0.0006336996718087942</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 가군에서 물리치료학과는 4명을 모집합니다.</t>
+        </is>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 가군에서 물리치료학과는 4명을 모집합니다.</t>
+        </is>
+      </c>
+      <c r="D214" t="n">
+        <v>0.9472652833627722</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>2024. 01. 17.(수) 입니다.</t>
+        </is>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>2024학년도 나군 실기/실적 전형에서 디자인조형학과(시각디자인, 산업디자인, 공예디자인)의 실기고사는 2024년 1월 17일(수)에 실시됩니다.
+참고로, 해당 일정은 다음과 같습니다:
+- **일시:** 2024. 01. 17.(수)
+- **대기실 및 입실시간 안내:** 2024. 01. 12.(금) 14:00 이후 (입학안내 홈페이지에서 조회 가능)
+이 일정을 참고하여 준비하시길 바랍니다.</t>
+        </is>
+      </c>
+      <c r="D215" t="n">
+        <v>6.987340928880371e-05</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>수능 최저 학력 기준은 없습니다.</t>
+        </is>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 응용화학과의 정확한 수능 최저기준 정보가 표에서 제공되지 않았습니다. 
+표에서 응용화학과 관련된 정보는 다음과 같습니다:
+- 응용화학과는 다군 수능(일반학생전형)에 포함되어 있습니다.
+- 다군 수능(일반학생전형)의 경우, 전형요소 반영비율은 {0 / 0 / 0 / 0 / 0 / 100 /}로 수능이 100% 반영됩니다. 
+- 하지만 수능 최저기준 정보는 표에서 제공되지 않았습니다.
+수능 최저기준에 대한 정확한 정보를 얻으려면 동의대학교 입학처 웹사이트나 공식 안내서를 확인하시거나, 직접 입학처와 문의해보시는 것이 가장 정확할 것입니다.</t>
+        </is>
+      </c>
+      <c r="D216" t="n">
+        <v>9.304688180615995e-09</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도에 신설된 학과는 다음과 같습니다:
+1. 심리학과
+2. 스마트항만물류학과
+3. 창업투자경영학과
+4. 라이프융합학부 (스타트업창업투자학, 뷰티비즈니스학, 라이프생활문화학)
+5. 경기지도학과</t>
+        </is>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교에서 신설된 학과들은 다음과 같습니다:
+1. 미래융합대학:
+   - 라이프융합학부 (스타트업창업투자학, 뷰티비즈니스학, 라이프생활문화학)
+   - 부동산자산경영학부 (부동산투자학, 부동산개발경영학)
+2. 예술디자인체육대학:
+   - 경기지도학과
+3. 공과대학:
+   - 로봇자동화공학과
+4. ICT융합공과대학:
+   - 인공지능학과
+   - 디지털콘텐츠학과
+5. 상경대학:
+   - 스마트호스피탈리티학과
+6. 의료·보건·생활대학:
+   - 임상병리학부
+   - 치위생학부
+   - 방사선학부
+   - 식품영양학부
+이들 학과들은 2024년도에 신설되어 동의대학교에서 처음으로 입학을 받는 학생들을 선발합니다.</t>
+        </is>
+      </c>
+      <c r="D217" t="n">
+        <v>0.1216660812422788</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 나군의 학생부종합(성인학습자전형)의 전형요소 반영비율은 서류 70%, 면접 30%입니다.</t>
+        </is>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 나군의 학생부종합(성인학습자전형)의 전형요소 반영비율은 다음과 같습니다:
+- 서류: 70%
+- 면접: 30%
+이 정보는 [나군 학생부종합(평생학습자전형ㅣ성인학습자(정원내·외)전형ㅣ재직자전형) 전형요소 반영비율] 표에서 확인할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="D218" t="n">
+        <v>0.1980347933513427</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>동의대학교에서는 다음 모집단위에서 수능 가산점을 적용합니다:
+- 의료·보건·생활대학
+- 공과대학
+- ICT융합공과대학
+이들 모집단위에서 수학(미적분 또는 기하)을 응시한 경우, 수학 취득 표준점수의 10%를 가산점으로 부여합니다.</t>
+        </is>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 동의대학교에서는 의료·보건·생활대학, 공과대학, ICT융합공과대학 모집단위에서 수학(미적분 또는 기하) 응시자의 수학 취득 표준점수의 10% 가산점을 부여합니다.
+이 정보는 "가산점"이라는 제목 아래에 있는 표에서 확인할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="D219" t="n">
+        <v>0.685036460052252</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>동의대학교의 2024학년도 가군 수능(일반학생전형)에서는 수능 성적을 100% 반영합니다. 자세한 수능 성적 반영 방법은 '38페이지 Ⅴ. 수능성적 반영방법'을 참조하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 가군에서 수능 성적은 다음과 같이 반영됩니다:
+- 국어(화법과작문 또는 언어와매체): 25%
+- 수학(확률과통계 또는 미적분 또는 기하): 25%
+- 영어: 25%
+- 탐구(사회탐구 또는 과학탐구 또는 직업탐구 중 2개 과목 합산): 25%
+즉, 국어, 수학, 영어, 그리고 탐구 영역에서 선택한 두 과목의 표준점수와 등급 점수가 각각 25%씩 반영됩니다.</t>
+        </is>
+      </c>
+      <c r="D220" t="n">
+        <v>0.1029113168790232</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 가군 실기고사는 2024년 1월 16일(화)에 진행됩니다.</t>
+        </is>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 가군 실기고사는 2024년 1월 16일(화)에 진행됩니다.
+이 정보는 "전형일정" 표에서 확인할 수 있습니다. 해당 표에서는 각 모집단위별로 실기고사 날짜가 명시되어 있으며, 레저스포츠학과와 태권도학과의 실기고사는 2024년 1월 16일(화)에 열립니다.</t>
+        </is>
+      </c>
+      <c r="D221" t="n">
+        <v>0.08117111327123898</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 나군 수능(일반학생전형) 전형에서는 한의예과, 디자인조형학과와 체육학과, 경기지도학과가 제외됩니다.</t>
+        </is>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 나군 수능(일반학생전형)에서는 한의예과, 디자인조형학과, 체육학과, 경기지도학과를 제외한 모든 모집단위가 해당됩니다.
+이 점을 고려하여 정리하면:
+- 전반적으로 나군 수능(일반학생전형)은 대부분의 학과에서 진행되지만,
+- 한의예과, 디자인조형학과, 체육학과, 경기지도학과는 제외됩니다.
+따라서 나군 수능(일반학생전형)에서는 이 4개 학과를 지원할 수 없습니다.</t>
+        </is>
+      </c>
+      <c r="D222" t="n">
+        <v>0.101203975157765</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2024학년도 동의대의 다군 전형에서는 수능 최저기준이 적용되지 않습니다. </t>
+        </is>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 다군 전형에서는 수능 최저기준이 적용되지 않습니다.
+참조할 수 있는 정보는 다음과 같습니다:
+- [표 제목 : 전형요소 반영비율]에서 다군 수능(일반학생전형)의 경우 "수능최저기준 없음"으로 표시되어 있습니다.
+- 이는 모든 다군 전형에서 수능 최저점수 조건이 설정되지 않았음을 의미합니다.
+따라서 지원자는 해당 학과의 모집인원과 경쟁률을 고려하여 수능 성적을 준비하는 것이 좋겠습니다.</t>
+        </is>
+      </c>
+      <c r="D223" t="n">
+        <v>0.007525869341263361</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대에서 학부에서 학과로 분리된 학과는 다음과 같습니다:
+1. 보육가정상담학과 → 아동학과
+2. 경제금융보험학과 → 금융경영학과
+3. 정보경영학부 → 경영정보학과, e비즈니스학과
+4. 부동산금융자산경영학과 → 부동산자산경영학부(부동산투자학, 부동산개발경영학)
+5. 기계자동차로봇부품공학부 → 기계공학과, 로봇자동화공학과, 자동차공학과
+6. 신소재공학부(금속소재공학, 전기전자소재공학, 고분자소재공학) → 신소재공학과, 고분자나노공학과
+7. 건설공학부(건축학(5년제), 건축공학, 토목공학, 도시공학) → 건축학과(5년제), 건축공학과, 토목공학과, 도시공학과
+8. 화학환경공학부(화학공학, 환경공학, 응용화학) → 화학공학과, 환경공학과, 응용화학과
+9. 바이오응용공학부(의생명공학, 바이오의약공학, 식품공학) → 의생명공학과, 바이오의약공학과, 식품공학과
+10. 디자인공학부(인간시스템디자인공학, 제품디자인공학) → 인간공학과, 제품디자인공학과
+11. 산업융합시스템공학부(산업ICT기술공학, 산업경영빅데이터공학) → 산업경영빅데이터공학과
+12. 창의소프트웨어공학부(컴퓨터소프트웨어공학, 응용소프트웨어공학) → 소프트웨어공학부(컴퓨터소프트웨어공학, 응용소프트웨어공학)
+13. 전기전자통신공학부(전기공학, 전자공학, 정보통신공학) → 전기공학과, 전자공학과
+14. 음악학과(성악, 피아노, 관현타악, 실용음악뮤지컬, 뉴미디어작곡) → 음악학과(클래식, 실용음악, 뉴미디어작곡)</t>
+        </is>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교에서는 다음과 같은 학과가 학부에서 학과로 분리되었습니다:
+1. 보육·가정상담학과 → 아동학과
+2. 경제금융보험학과 → 금융경영학과
+3. 정보경영학부(경영정보학, e비즈니스학) → 경영정보학과, e비즈니스학과
+4. 부동산금융·자산경영학과 → 부동산자산경영학부(부동산투자학, 부동산개발경영학)
+5. 기계자동차로봇부품공학부(기계공학, 로봇·자동화공학, 자동차공학) → 기계공학과, 로봇자동화공학과, 자동차공학과
+6. 신소재공학부(금속소재공학, 전기전자소재공학, 고분자소재공학) → 신소재공학과, 고분자나노공학과
+7. 건설공학부(건축학(5년제), 건축공학, 토목공학, 도시공학) → 건축학과(5년제), 건축공학과, 토목공학과, 도시공학과
+8. 화학환경공학부(화학공학, 환경공학, 응용화학) → 화학공학과, 환경공학과, 응용화학과
+9. 바이오응용공학부(의생명공학, 바이오의약공학, 식품공학) → 의생명공학과, 바이오의약공학과, 식품공학과
+10. 디자인공학부(인간·시스템디자인공학, 제품디자인공학) → 인간공학과, 제품디자인공학과
+11. 산업융합시스템공학부(산업ICT기술공학, 산업경영빅데이터공학) → 산업경영빅데이터공학과
+12. 창의소프트웨어공학부(컴퓨터소프트웨어공학, 응용소프트웨어공학) → 소프트웨어공학부(컴퓨터소프트웨어공학, 응용소프트웨어공학)
+13. 전기전자통신공학부(전기공학, 전자공학, 정보통신공학) → 전기공학과, 전자공학과
+14. 음악학과(성악, 피아노, 관현타악, 실용음악·뮤지컬, 뉴미디어작곡) → 음악학과(클래식, 실용음악, 뉴미디어작곡)
+이 외에도 일부 학과는 신설되었거나 전공 모집을 중단하였습니다.</t>
+        </is>
+      </c>
+      <c r="D224" t="n">
+        <v>0.8820239299273671</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 전형일정에서 원서접수 마감일은 2024년 1월 6일(토) 18시입니다.</t>
+        </is>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교의 원서접수 마감일은 2024년 1월 6일(토) 18시까지입니다.
+이 정보는 "전형일정" 표에서 확인할 수 있습니다. 해당 표에 따르면:
+원서접수(인터넷): 2024. 01. 03.(수)～2024. 01. 06.(토) 마감일 18시까지
+따라서 원서접수는 2024년 1월 6일(토) 오후 6시까지 가능하며, 이 시간 이후에는 접수가 차단됩니다.</t>
+        </is>
+      </c>
+      <c r="D225" t="n">
+        <v>0.04417523007897566</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t xml:space="preserve">동의대 2024학년도에 전형 요소 변화가 있는 전형은 다음과 같습니다:
+1.  학생부종합(성인학습자전형):
+ - 2023학년도: 특성화고 등을 졸업한 재직자
+ - 2024학년도: 고교 졸업(예정)자 또는 법령에 의한 동등 학력 소지자로서 만 30세 이상인 자
+2.  학생부종합(조기취업형계약학과전형):
+  - 2023학년도: 서류(학생부) 70% + 면접 30%
+  - 2024학년도: 서류(학생부) 60% + 면접 40%
+3. 실기/실적(경기실적우수자전형):
+  - 2023학년도: 학생부교과(출결 포함) 30% + 서류(실적) 70%
+  - 2024학년도: 학생부교과 18% + 출결 12% + 서류(실적) 70%
+4. 반영학기(학생부교과, 실기/실적 위주전형):
+ - 2023학년도: 
+  - 고교 졸업예정자 : 1학년 1학기~3학년 1학기
+  - 고교 졸업자 : 1학년 1학기~3학년 2학기
+ - 2024학년도: 
+  -고교 졸업(예정)자 : 1학년 1학기~3학년 1학기
+5. 반영과목(학생부교과, 실기/실적 위주전형):
+ - 2023학년도:
+  -전 모집단위(한의예과 제외):
+   -국어, 수학, 영어교과 중 석차등급 상위 8과목
+   -8과목을 제외한 국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학교과 중 석차등급 상위 4과목
+   -반영교과 중 진로선택과목 최대 2개 이내 반영 가능
+   -진로선택과목 성적반영: A: 2등급, B: 4등급, C: 6등급
+  -한의예과:
+   -국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학, 한문교과 전과목
+   -진로선택과목: 미반영
+- 2024학년도:
+  -전 모집단위(한의예과 제외):
+   -국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학교과 중 석차등급 상위 12과목
+   -반영교과 중 진로선택과목 최대 2개 이내 반영 가능
+   -진로선택과목 성적반영: A: 1등급, B: 3등급, C: 5등급
+  -한의예과:
+   -국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학, 한문교과 전과목
+   -진로선택과목: 반영교과 전과목 반영
+</t>
+        </is>
+      </c>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교에서 주요한 전형 요소 변화는 다음과 같습니다:
+1. **평생학습자전형, 성인학습자(정원내·외)전형, 재직자전형**:
+   - 지원자격 조건이 추가되었습니다.
+   - 산업체 적용 범위가 명시되었습니다 (국가/지방자치단체 및 공공단체 소속 직원, 상시근로자 5인 이상 사업체 등).
+   - 재직기간 산정 기준이 추가되었습니다.
+2. **나군 실기/실적(경기실적우수자전형)**:
+   - 동점자 처리기준에 진로선택과목 성취도 등급(A:1등급, B:3등급, C:5등급)을 적용하도록 변경되었습니다.
+이러한 변화는 각 전형의 지원 자격 및 평가 기준을 더 구체화하고 명확하게 하기 위한 것으로 보입니다.</t>
+        </is>
+      </c>
+      <c r="D226" t="n">
+        <v>0.1537244823819004</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 가군 실기/실적 전형에서 실기 비중은 70%입니다.</t>
+        </is>
+      </c>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 가군 실기/실적(일반학생전형)에서는 실기 비중이 70%입니다.
+이는 다음과 같은 표에서 확인할 수 있습니다:
+[가]군, [나]군 실기/실적(일반학생전형) / 레저스포츠학과, 태권도학과 / { 30% /  70% / }
+따라서, 가군의 경우 실기 비중은 70%이며, 레저스포츠학과와 태권도학과는 이보다 낮은 30%입니다.</t>
+        </is>
+      </c>
+      <c r="D227" t="n">
+        <v>0.01715964563510763</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 신설된 라이프융합학부의 세부 전공은 다음과 같이 구성되어 있습니다:
+ - 스타트업창업투자학
+ - 뷰티비즈니스학
+ - 라이프생활문화학</t>
+        </is>
+      </c>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교에서 신설된 라이프융합학부의 세부 전공은 다음과 같습니다:
+1. 스타트업창업투자학
+2. 뷰티비즈니스학 
+3. 라이프생활문화학
+이러한 세부전공들은 미래융합대학 인문사회 계열에 속해 있습니다.
+학생들이 다양한 삶의 질 향상을 위한 창업, 비즈니스, 문화 분야에서 전문성을 갖출 수 있도록 구성된 신설 학과입니다.</t>
+        </is>
+      </c>
+      <c r="D228" t="n">
+        <v>0.2514445995991631</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 가군에서 실기고사에 참여해야 하는 학과는 다음과 같습니다:
+1. 체육학과
+2. 레저스포츠학과</t>
+        </is>
+      </c>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 가군에서 실기고사를 진행하는 학과는 디자인조형학과입니다.
+특히, 디자인조형학과는 다음과 같은 세부사항이 있습니다:
+- 실기종목은 시각디자인, 산업디자인, 공예디자인 중 택1
+- 종목별 배점(비율)은 시각디자인/산업디자인/공예디자인 각 700점(70%)
+따라서 디자인조형학과를 지원하는 학생들은 이 실기고사를 준비해야 합니다.</t>
+        </is>
+      </c>
+      <c r="D229" t="n">
+        <v>0.07591746781868101</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t xml:space="preserve">동의대 2024학년도 실기/실적 위주 전형 지원 가능한 학과는 다음과 같습니다:
+1. 레저스포츠학과
+2. 태권도학과
+3. 디자인조형학과
+4. 체육학과
+5. 경기지도학과 </t>
+        </is>
+      </c>
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교에서 실기/실적 위주 전형인 "실기/실적(일반학생전형)"은 다음과 같은 학과에서 시행됩니다:
+1. 디자인조형학과
+2. 체육학과
+이 두 학과는 실기 성적이 주요 평가 요소로 반영되는 전형입니다.</t>
+        </is>
+      </c>
+      <c r="D230" t="n">
+        <v>0.4523729117235348</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>동의대학교의 라이프융합학부는 신설된 학부로, 다음과 같은 전공을 제공합니다:
+ - 스타트업창업투자학
+ - 뷰티비즈니스학
+ - 라이프생활문화학</t>
+        </is>
+      </c>
+      <c r="C231" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 미래융합대학에서 신설된 라이프융합학부는 다음과 같은 전공을 제공합니다:
+1. 스타트업창업투자학
+2. 뷰티비즈니스학
+3. 라이프생활문화학
+이러한 세 가지 전공으로 구성되어 있으며, 이들은 모두 학생부종합(평생학습자전형) 모집단위에 포함됩니다.</t>
+        </is>
+      </c>
+      <c r="D231" t="n">
+        <v>0.3240325884559051</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>특수목적고등학교 출신 학생은 일반학생전형으로 지원할 수 있습니다. 다만, 농어촌학생전형의 경우 마이스터고를 제외한 특수목적고등학교 출신자는 지원할 수 없습니다. 일반학생전형에 대한 자세한 정보는 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C232" t="inlineStr">
+        <is>
+          <t>你是韩国学生吗？根据提供的信息，如果你是特殊教育高中（특수목적고등학교）的学生，你可能不符合东义大学一般学分型的申请资格。具体来说：
+- **나군 수능(일반학생전형) - 고교유형별 지원자격** 表格显示：
+  - 特殊教育高中：不支持（지원 불가능）
+所以如果你是特殊教育高中的学生，你不能通过东义大学的一般学分型申请。建议查看其他适合特殊教育高中学生的招生类型，或者咨询学校的具体要求。
+如果有其他问题或需要进一步的帮助，请告诉我！</t>
+        </is>
+      </c>
+      <c r="D232" t="n">
+        <v>0.106013500532719</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대 나군 전형에서 가장 많이 모집하는 학과는 인문사회과학대학의 중어중국학과와 공과대학 신소재공학과로, 나군 일반학생 전형에서 32명을 모집합니다.</t>
+        </is>
+      </c>
+      <c r="C233" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 나군 전형에서 가장 많이 모집하는 학과를 파악하기 위해서는 각 학과별로 모집인원을 확인해야 합니다. 제공된 데이터 중 나군 수능(일반학생전형) 및 실기/실적(일반학생전형) 모집단위와 모집인원 표를 보면, 가장 많은 모집인원을 보이는 학과는 다음과 같습니다:
+1. **공과대학 - 건축공학과 (교직)**: 39명
+2. **상경대학 - 외식경영학과 (교직)**: 3명
+그러나 이 중에서 가장 많은 모집인원을 보이는 학과는 **공과대학의 건축공학과(교직)**로, 39명을 모집한다고 합니다.
+따라서, 2024학년도 동의대학교 나군 전형에서 가장 많이 모집하는 학과는 **건축공학과 (교직)**입니다.</t>
+        </is>
+      </c>
+      <c r="D233" t="n">
+        <v>0.03781184204336609</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>마이스터고를 제외한 특수목적고등학교 출신자는 동의대 학생부교과 농어촌학생전형으로 지원할 수 없습니다.  지원 자격에 따르면, 농어촌지역 또는 도서·벽지에 소재한 특수목적고 중 과학고, 국제고, 외국어고, 체육고, 예술고 출신자는 지원할 수 없습니다.</t>
+        </is>
+      </c>
+      <c r="C234" t="inlineStr">
+        <is>
+          <t>你是特殊教育高中学生，根据东义大学的农渔村学生专项招生要求，你可能不符合申请资格。具体来说：
+1. **支持对象**：
+   - 农渔村（镇、村）地区中、高中的全日制在校生。
+   - 在校期间本人及父母均在农渔村（镇、村）居住。
+2. **特殊教育高中**：
+   - 特殊教育高中（如科学高中、国际高中、外语高中等）的学生不在支持范围内。
+因此，如果你是普通高中或职业高中学生，并且满足农渔村地区居住条件，那么你可能符合申请资格。建议详细查看东义大学的招生简章或直接咨询学校确认具体要求。</t>
+        </is>
+      </c>
+      <c r="D234" t="n">
+        <v>4.71482088920665e-79</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>제공된 정시 모집요강에는 2024학년도 소프트웨어공학부 합격자 평균 성적에 대한 정보가 포함되어 있지 않습니다. 해당 정보를 확인하려면 "https://ipsi.deu.ac.kr/main.do"를 방문하여 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C235" t="inlineStr">
+        <is>
+          <t>2024학년도 소프트웨어공학부의 합격자의 평균 성적은 다음과 같습니다:
+- 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합: { 330.11 / 9.08 }
+따라서, 소프트웨어공학부의 최초합격자의 평균 성적은 330.11입니다.</t>
+        </is>
+      </c>
+      <c r="D235" t="n">
+        <v>0.2450959579181446</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>제공된 정시 모집요강에는 2024학년도 소프트웨어공학부 합격자 평균 성적에 대한 정보가 포함되어 있지 않습니다. 해당 정보를 확인하려면 "https://ipsi.deu.ac.kr/main.do"를 방문하여 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C236" t="inlineStr">
+        <is>
+          <t>2024학년도 소프트웨어공학부의 최초합격자의 평균 성적은 다음과 같습니다:
+- 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합 { 평균 / 표준 편차 }: 434.70 / 8.01
+따라서, 소프트웨어공학부의 최초합격자들의 국어, 수학, 탐구 영역의 가산점 포함 표준 변환 점수 합의 평균은 **434.70**입니다.</t>
+        </is>
+      </c>
+      <c r="D236" t="n">
+        <v>0.166672186855567</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>합격자 발표 일정은 다음과 같습니다:
+ - 최초 합격자 발표: 2024년 2월 2일(금) 14:00
+ - 충원 합격자 1차 발표: 2024년 2월 14일(수) 09:00
+ - 충원 합격자 2차 발표: 2024년 2월 15일(목) 09:00
+ - 충원 합격자 3차 이후 발표: 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18:00까지
+ 모든 발표는 홈페이지를 통해 개별 조회해야 합니다.</t>
+        </is>
+      </c>
+      <c r="C237" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교 합격자 발표 일정은 다음과 같습니다:
+1. 최초합격자 발표:
+   - 날짜: 2024년 2월 2일 (금) 14:00
+   - 방법: 홈페이지에서 개별 조회
+2. 충원 합격자 발표:
+   - 1차 발표:
+     * 날짜: 2024년 2월 14일 (수) 09:00
+     * 방법: 홈페이지에서 개별 조회
+   - 1차 등록:
+     * 날짜: 2024년 2월 14일 (수) 09:00 ~ 16:00
+   - 2차 발표:
+     * 날짜: 2024년 2월 15일 (목) 09:00
+     * 방법: 홈페이지에서 개별 조회
+   - 2차 등록:
+     * 날짜: 2024년 2월 15일 (목) 09:00 ~ 16:00
+3. 3차 이후 충원 합격자 발표 및 등록은 개별 전화 통보로 이루어집니다.
+모든 지원자는 이 일정을 확인하고 지정된 날짜 내에 홈페이지를 통해 자신의 합격 여부를 조회해야 합니다.</t>
+        </is>
+      </c>
+      <c r="D237" t="n">
+        <v>0.3282820908098572</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>나군 평생학습자전형, 성인학습자(정원내)전형, 성인학습자(정원외)전형, 재직자전형, 조기취업형계약학과전형의 면접고사 일정은 2024. 01. 20.(토)입니다.</t>
+        </is>
+      </c>
+      <c r="C238" t="inlineStr">
+        <is>
+          <t>2024학년도 나군 학생부종합(조기취업형계약학과전형) - 정원외의 면접평가 일정은 표 "전형일정"에서 확인할 수 있습니다. 그러나 현재 해당 표는 제공되지 않았습니다.
+표 "전형일정"에 따르면, 일반적으로 면접고사는 다음과 같은 일정으로 이루어집니다:
+- 합격자 발표: 2024년 2월 2일(금)부터 시작
+- 등록금 납부 및 충원합격자 발표: 2024년 2월 7일(수) ~ 15일(목)
+- 면접고사는 이 기간 중에 이루어질 것으로 예상됩니다.
+따라서 정확한 일정은 입학 안내 홈페이지를 통해 확인해야 합니다. 지원자는 해당 홈페이지에서 최신 정보와 면접 날짜 등을 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="D238" t="n">
+        <v>0.05363316924697078</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>동의대 한의예과의 최저학력 기준이 없습니다.</t>
+        </is>
+      </c>
+      <c r="C239" t="inlineStr">
+        <is>
+          <t>提供的信息中没有直接提到韩医科（한의예과）的具体最低学力标准。但是，根据之前的信息片段，可以推断出以下几点：
+1. 韩医科的录取通常会考虑学生的高中毕业资格或同等学历。
+2. 对于韩医科的一些特定科目有具体要求，例如数学、英语等。
+为了获得确切的最低学力标准，建议直接访问东国大学（假设这是提供信息的学校）的官方网站或者联系学校的招生办公室。网站上的“入学指南”部分通常会有详细的录取条件说明。
+如果您需要更准确的信息，可以参考以下链接获取最新资料：
+https://ipsi.deu.ac.kr/main.do
+请注意，这个链接是示例链接，请根据实际情况进行替换或访问正确的学校官网页面。</t>
+        </is>
+      </c>
+      <c r="D239" t="n">
+        <v>1.17786971921669e-05</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>동의대학교는 수능 최저학력 기준이 없습니다.</t>
+        </is>
+      </c>
+      <c r="C240" t="inlineStr">
+        <is>
+          <t>提供的信息中没有直接提到2024年各专业在普通高考招生时的具体最低录取标准（수능최저학력기준）。但是，根据给出的信息，可以推测以下几点：
+1. 部分专业可能没有设置具体的最低学力基准，例如：
+   - "수능 위주 / 가군 수능(일반학생전형) 전 모집단위(레저스포츠학과, 태권도학과 제외)" 中未提及最低学力标准。
+2. 有些专业虽然没有明确提到最低学力基准，但实际上可能有隐含的最低要求。例如：
+   - "수능 위주 / 다군 수능(일반학생전형) 전 모집단위" 没有具体说明，但通常这类专业会有一定的分数门槛。
+3. 对于设有最低学力标准的专业，这些标准可能会在学校的招生简章或官方网站上公布。建议直接访问东国大学的官网或其他官方渠道获取最新的招生信息和具体的最低录取要求。
+因此，如果想了解某个特定专业的具体最低学力基准，最好的做法是直接咨询学校或者查看其官方发布的最新招生简章。</t>
+        </is>
+      </c>
+      <c r="D240" t="n">
+        <v>1.309937258743804e-07</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>충원합격자 발표 일정은 다음과 같습니다:
+ 1. 1차 충원합격자 발표: 2024년 2월 14일(수) 09:00
+ 2. 2차 충원합격자 발표: 2024년 2월 15일(목) 09:00
+ 3. 3차 이후 충원합격자 발표: 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18시까지</t>
+        </is>
+      </c>
+      <c r="C241" t="inlineStr">
+        <is>
+          <t>2024년 2월 15일(목)부터 2024년 2월 20일(화)까지 충원합격자를 발표합니다. 특히, 3차 이후 충원합격자 발표 과정에서 전화 연락 두절로 인해 충원합격 통보가 어려운 경우, 충원합격이 되었으나 등록 의사가 없는 등록 포기자로 간주하므로, 이 기간 동안 전화 연락을 받지 못하는 일이 없도록 유의해야 합니다.</t>
+        </is>
+      </c>
+      <c r="D241" t="n">
+        <v>0.422803138022694</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>충원합격자 발표 일정은 다음과 같습니다:
+ 1. 1차 충원합격자 발표: 2024년 2월 14일(수) 09:00
+ 2. 2차 충원합격자 발표: 2024년 2월 15일(목) 09:00
+ 3. 3차 이후 충원합격자 발표: 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18시까지</t>
+        </is>
+      </c>
+      <c r="C242" t="inlineStr">
+        <is>
+          <t>2024년 2월 14일(수) 09:00와 2024년 2월 15일(목) 09:00에 각각 1차 및 2차 충원 합격자 발표가 이루어집니다. 또한, 3차 이후의 추가합격자는 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화)까지 개별 전화 통보를 통해 발표됩니다.
+따라서 추가합격자 발표 일정은 다음과 같습니다:
+- 1차 충원 합격자 발표: 2024년 2월 14일(수) 09:00
+- 2차 충원 합격자 발표: 2024년 2월 15일(목) 09:00
+- 3차 이후 추가합격자 발표: 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화)까지 개별 전화 통보</t>
+        </is>
+      </c>
+      <c r="D242" t="n">
+        <v>0.3800284663501254</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>2024년 1월 2일(화) 이후 수시모집 등록자의 등록(입학) 포기로 인한 결원은 정시 일반학생전형 모집인원으로 이월하여 추가로 합격자를 선발합니다. 정시모집 모집단위별 등록인원이 모집인원에 미달된 경우에는 그 인원을 추가모집으로 이월하여 모집합니다.</t>
+        </is>
+      </c>
+      <c r="C243" t="inlineStr">
+        <is>
+          <t>从提供的表格信息来看，并没有直接提到关于"추가모집"(追加募集/额外招生)的具体内容。但是，根据一些相关的信息可以推测：
+1. 在"나군 학생부종합(평생학습자전형ㅣ성인학습자(정원내·외)전형ㅣ재직자전형) 모집단위 및 모집인원"表格中提到：
+   "최종등록자 중 고교 졸업예정자는 졸업 이후 지원자격 증빙서류를 2024. 02. 16.(금)까지 추가 제출하여야 합니다。"
+   这表明最终注册的学生如果是在校生，需要在毕业后补充一些材料。
+2. 在"전형일정"表格中提到：
+   "합격자 발표 및 등록금 납부 충원 합격자 1차 (인터넷) 발표 / 2024. 02. 14.(수) 09:00"
+   这表明有可能会有补充合格者。
+3. 在"나군 학생부종합(조기취업형계약학과전형) - 정원외 모집단위 및 모집인원"表格中提到：
+   "조기취업형계약학과전형은 2단계 참여기업 면접결과에 따라 최종 합격인원이 모집인원보다 적거나 없을 수도 있습니다。"
+   这表明该类型可能会有未达到预期招生人数的情况。
+虽然没有明确提到"추가모집"，但从这些信息可以推测有可能会有补充录取的过程。具体是否进行追加招生还需要参考学校官方发布的最新通知或公告。建议直接咨询学校获取最准确的信息。</t>
+        </is>
+      </c>
+      <c r="D243" t="n">
+        <v>0.02000513786155059</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>평생학습자전형에 대한 정보는 다음과 같습니다.  
+모집단위 및 모집인원
+  - 미래융합대학 라이프융합학부
+  - 전형명: 학생부종합(평생학습자전형)
+  - 모집인원: 11명
+ 지원자격
+ - 평생학습자전형: 고교 졸업(예정)자 또는 법령에 의한 동등학력 소지자
+전형요소 반영 비율
+ - 서류: 70%
+ - 면접: 30%
+ 제출서류
+ - 고교 졸업(예정)자:
+  - 고교 학교생활기록부 1부 (학생부 온라인 제공 동의자는 제출할 필요 없음)
+- 검정고시출신자:
+  - 검정고시 합격증서 사본 또는 합격증명서 1부
+  - 검정고시 성적증명서 1부 (온라인 제공 동의자는 제출할 필요 없음)
+  - 학교생활기록부 대체 서류 (제출여부 선택 가능)
+ - 외국고교 졸업(예정)자:
+  - 공증받은 외국고교 졸업(예정)증명서 1부
+  - 공증받은 외국고교 성적증명서 1부
+  - 학교생활기록부 대체 서류(제출여부 선택 가능)
+  - 외국어로 작성된 경우, 원본과 공증받은 한국어 번역본을 함께 제출
+  - 고교 졸업(예정)증명서, 성적증명서는 해당국가의 정부기관으로부터 아포스티유 확인서 또는 해당국가 주재 한국영사관에서 영사 확인을 발급받아 제출(단, 교육부에서 인정한 재외한국학교는 영사확인 없이 증명서 원본 제출 가능)
+  - 만점이 명시된 고교성적 체계자료를 성적증명서 뒤에 첨부
+  - 최종 등록자 중 외국고교 졸업예정자는 졸업 이후 졸업증명서(아포스티유 확인서 또는 영사확인 
+발급)를 2024. 02. 16.(금)까지 추가 제출하여야 합니다.
+제출기간 및 장소
+ - 제출기간: 2024. 01. 03.(수) ~ 01. 12.(금) 17:00까지 도착분에 한함
+ - 제출장소: (우: 47340) 부산광역시 부산진구 엄광로 176, 동의대학교 입학관리팀
+ 추가사항
+ - 검정고시출신자 및 외국고교 졸업(예정)자의 제출서류 중 학교생활기록부 대체 서류는 선택 제출서류로 ‘학교생활기록부 대체 서류’ 양식을 참조.
+ 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="C244" t="inlineStr">
+        <is>
+          <t>평생학습자전형은 대학에서 평생교육을 받은 학습자를 선발하기 위한 전형입니다. 주요 내용은 다음과 같습니다:
+1. 지원 자격:
+   - 고교 졸업(예정)자 또는 법령에 의한 동등학력 소지자
+2. 모집 대상:
+   - 30세 이상인 자 (1994년 2월 28일 이전 출생)
+3. 전형 요소 반영 비율:
+   - 서류: 70%
+   - 면접: 30%
+4. 제출서류:
+   - 고교 학교생활기록부 (온라인 제공 동의자 제외)
+   - 검정고시 합격증서 및 성적증명서
+   - 외국고교 졸업(예정)자의 경우, 공증받은 졸업증명서와 성적증명서 등
+5. 서류평가 영역:
+   - 공동체역량 (140점)
+   - 학업역량 (280점)
+   - 전공적합성 (280점)
+6. 면접 평가 주요 내용:
+   - 지원동기 및 학업계획 발표
+   - 학업역량, 전공적합성 관련 공통문항 발표 및 질의응답
+7. 기타 유의사항:
+   - 서류제출 여부는 홈페이지에서 확인 가능하며, 반드시 본인의 서류제출 여부를 확인해야 합니다.
+   - 제출기간은 2024년 1월 3일(수) ~ 12일(금)까지입니다.
+이 전형은 평생학습을 통해 자신의 역량을 키운 학습자들에게 기회를 제공하기 위해 마련되었습니다.</t>
+        </is>
+      </c>
+      <c r="D244" t="n">
+        <v>0.366453038117278</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>평생학습자전형의 지원자격은 다음과 같습니다
+ - 고교 졸업(예정)자 또는 법령에 의한 동등학력 소지자</t>
+        </is>
+      </c>
+      <c r="C245" t="inlineStr">
+        <is>
+          <t>6년 과정 또는 12년 과정 중 하나에 해당해야 합니다.
+- **6년 과정**: 농어촌(읍·면)지역에 소재하는 중·고등학교에서 전 교육과정을 이수하고, 중·고등학교 재학기간 중 본인 및 부모 모두가 농어촌 지역에 거주한 자 (학생과 부모 거주지가 동일하지 않아도 됨).
+- **12년 과정**: 부모의 거주지와는 상관없이 지원자 본인이 초·중·고등학교 전 교육과정을 농어촌(읍·면)지역 소재 학교에서 이수하고 거주한 자.
+추가 조건:
+- 농어촌 지역 또는 도서·벽지에 소재한 특수목적고 (과학고, 국제고, 외국어고, 체육고, 예술고) 출신자는 지원할 수 없습니다.
+- 행정구역은 초·중·고등학교 재학 당시의 행정구역 단위를 적용하며, 중간에 변경된 경우도 포함됩니다.
+- 최초 입학일부터 졸업일까지 농어촌 또는 도서·벽지 지역에서 거주하거나 재학하지 않으면 불합격 처리될 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="D245" t="n">
+        <v>0.0003632417912157408</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>실기고사 대기실 및 입실시간은 2024. 01. 12.(금) 14:00 이후 입학안내 홈페이지에서 조회 가능합니다.</t>
+        </is>
+      </c>
+      <c r="C246" t="inlineStr">
+        <is>
+          <t>该问题似乎与提供的数据内容不符，没有明确提到“실기고사”（技能考试）的相关信息。根据现有表格和内容，没有关于实考地点的具体说明。
+如果您是指面试或面谈的地点，请参考以下相关信息：
+- 在“나군 학생부종합(평생학습자전형ㅣ성인학습자(정원내·외)전형ㅣ재직자전형) 면접평가 방법”表格中提到：
+  - 面试类型：个别面试
+  - 面试时间：每人10分钟以内
+  - 面试方法：2名招生官对一名考生进行单独评价，基于考生的回答内容进行定性、综合评价
+- 在“나군 학생부종합(조기취업형계약학과전형) - 정원외 면접평가 방법”表格中提到：
+  - 面试类型：个别面试
+  - 面试时间：每人10分钟以内
+  - 面试方法：2-3名面试官对一名考生进行单独评价，基于考生的回答内容进行定性、综合评价
+如果您需要具体的地点信息，请提供更详细的问题或相关表格名称。</t>
+        </is>
+      </c>
+      <c r="D246" t="n">
+        <v>0.0008405801572218745</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>실기고사 대기실 및 입실시간은 2024. 01. 12.(금) 14:00 이후 입학안내 홈페이지에서 조회 가능합니다.</t>
+        </is>
+      </c>
+      <c r="C247" t="inlineStr">
+        <is>
+          <t>체육학과의 실기고사는 다음과 같이 준비해야 합니다:
+1. **장비**: 운동복 및 운동화를 착용해야 합니다. 스파이크나 축구화 같은 특수화는 허용되지 않으며, 신발바닥에 이물질이 가착될 수 없도록 주의해야 합니다.
+2. **종목**:
+   - 제자리 멀리뛰기 (240점)
+   - 메디신볼 던지기 (243점)
+   - Z-런 (230점)
+3. **시간**: 각 종목은 5시간 동안 진행됩니다.
+4. **장소**: 실기고사는 대학 내에서 진행되며, 정확한 장소는 공지사항이나 입학 안내 홈페이지를 통해 확인할 수 있습니다.
+5. **주의 사항**:
+   - 부상 또는 기타 사유로 인해 기권한 경우 해당 종목에 최저점수를 받게 됩니다.
+   - 각 종목별 2회 반칙 시 최저점수를 받게 됩니다.
+따라서, 체육학과의 실기고사는 대학 내에서 진행되며, 위와 같은 준비 사항을 확인하고 준비해야 합니다.</t>
+        </is>
+      </c>
+      <c r="D247" t="n">
+        <v>0.0007423294816134837</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>아니요, 수시 충원합격자 발표는 전화로 개별 연락을 하지 않습니다. 최초합격자 및 1차, 2차 충원합격자 발표는 홈페이지를 통해 실시하며, 모든 지원자는 전형 일정에 명시된 합격자 발표일에 합격 여부를 반드시 홈페이지를 통해 확인해야 합니다. 3차 이후 충원합격자 발표 과정에서만 개별 전화 통보가 이루어집니다.</t>
+        </is>
+      </c>
+      <c r="C248" t="inlineStr">
+        <is>
+          <t>2024년 2월 15일(목)부터 20일(화)까지 충원 합격자를 발표하는데, 이 과정에서 전화 연락 두절(3회 통화)로 인해 충원합격 통보가 어려운 경우 충원합격이 되었으나 등록 의사가 없는 등록 포기자로 간주하므로, 지원자는 이 기간 동안 전화 연락을 받지 못하는 일이 없도록 유의해야 합니다.
+즉, 정식으로 충원 합격자가 발표되더라도 전화 통보는 이루어지지 않을 수 있습니다. 따라서 지원자는 해당 기간 동안 홈페이지를 통해 자신의 합격 여부를 확인하고, 필요하다면 직접 입학관리팀에 문의하는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="D248" t="n">
+        <v>0.2700119154435332</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>제공된 정시 모집요강에는 2023학년도 경찰행정학과 수시모집 결과에 대한 정보가 포함되어 있지 않습니다. 해당 정보를 확인하려면 "https://ipsi.deu.ac.kr/main.do"를 방문하여 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C249" t="inlineStr">
+        <is>
+          <t>2023학년도 경찰행정학과의 정확한 수시모집 결과에 대한 정보가 제공되지 않았습니다. 주어진 데이터에서는 2024학년도의 모집 관련 정보만 포함되어 있습니다. 
+특히, 2024학년도 가군 수능(일반학생전형)에서 경찰행정학과는 모집이 이루어지지 않는 것으로 나타나고 있습니다.
+만약 2023학년도의 결과를 알고 싶다면, 동의대학교 입학처 웹사이트나 관련 공식 문서를 확인해 보시는 것이 가장 정확한 방법입니다. 또한 한국교육과정평가원 등에서 제공하는 대입 정보 사이트에서도 참고할 수 있을 것입니다.</t>
+        </is>
+      </c>
+      <c r="D249" t="n">
+        <v>0.1309679839911278</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>아니요, 정시모집 지원자는 수능에 응시하지 않으면 지원할 수 없습니다.</t>
+        </is>
+      </c>
+      <c r="C250" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 정시모집에서 일부 전형에서는 수능을 응시하지 않아도 지원이 가능합니다. 특히, 학생부종합전형과 실기/실적전형은 수능 없이 지원할 수 있는 경우가 있습니다.
+특히 주목해야 할 점들은 다음과 같습니다:
+1. **학생부교과(농어촌학생전형)**: 이 전형에서는 수능을 응시하지 않아도 지원 가능합니다.
+2. **실기/실적 위주전형**: 일부 학과에서는 실기고사나 실적 평가만으로 지원할 수 있습니다.
+하지만, 대부분의 전형은 수능 점수를 반영하기 때문에, 수능을 응시하는 것이 유리한 경우도 많습니다. 특히, 수능 성적이 높다면 더 많은 학과에서 경쟁력을 갖출 수 있습니다.
+따라서 정확한 지원 가능 여부는 각 전형의 세부요건을 확인해야 합니다. 관련 정보를 상세히 제공하는 표와 내용들을 참고하시고, 필요하다면 대학 입학 홈페이지(https://ipsi.deu.ac.kr/main.do)에서 최신 정보를 확인하시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="D250" t="n">
+        <v>8.647085209881604e-06</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>네, 고등학교 졸업한지 10년이 지났더라도 정시 지원이 가능합니다. "고교유형별 지원자격" 표에 따르면, 일반고, 자율고, 특수목적고, 특성화고, 영재학교, 기타 학교, 검정고시, 외국고 출신자 모두 정시 지원이 가능합니다. 따라서 고등학교 졸업 시기와 상관없이 지원할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="C251" t="inlineStr">
+        <is>
+          <t>东义大学的普通学生选拔（一般学生招生）通常有特定的入学资格要求，主要包括高中毕业生或同等学历持有者。对于您提到的情况，如果已经高中毕业超过10年，是否可以申请需要具体查看东义大学当年的具体招生政策。
+一般来说，大多数大学对申请者的最高学历要求是最近几年内的高中文凭（或同等学历）。但有些特殊情况下，比如成人教育项目、平生学习者项目等可能会有不同的规定。
+建议您直接访问东义大学的官方网站或者联系学校的招生办公室，获取最新的招生信息和具体要求。他们能够提供最准确的信息，并告知是否有适合您的申请途径。</t>
+        </is>
+      </c>
+      <c r="D251" t="n">
+        <v>3.324385682236134e-79</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B252" t="inlineStr">
+        <is>
+          <t>동의대학교의 2024학년도 정시 일정은 다음과 같습니다
+1. 모집인원 확정 공고
+   - 일정: 2024년 1월 2일(화)
+   - 비고: 입학안내 홈페이지 공고
+2. 원서접수(인터넷)
+   - 일정: 2024년 1월 3일(수) ~ 2024년 1월 6일(토) 마감일 18시까지
+   - 비고: http://ipsi.deu.ac.kr 또는 http://www.uwayapply.com
+3. 서류 제출 (제출서류가 있는 경우)
+   - 일정: 2024년 1월 3일(수) ~ 2024년 1월 12일(금) 마감일 17시까지 도착
+   - 비고: 서류 제출대상 (Ⅳ. 전형별 세부 안내 참조)
+   - 제출방법: 접수사이트에서 우편발송용 표지를 출력하여 부착 후 제출 또는 우편발송
+4. 실기고사
+   - &lt;가&gt;군 실기고사 레저스포츠학과 태권도학과
+     - 일정: 2024년 1월 16일(화)
+     - 비고: 대기실 및 입실시간 안내 2024년 1월 12일(금) 14:00 이후 입학안내 홈페이지에서 조회
+   - &lt;나&gt;군 실기고사 디자인조형학과 (시각디자인, 산업디자인, 공예디자인) 체육학과
+     - 일정: 2024년 1월 17일(수)
+     - 비고: 대기실 및 입실시간 안내 2024년 1월 12일(금) 14:00 이후 입학안내 홈페이지에서 조회
+5. 합격자 발표 및 등록금 납부
+   - 최초 합격자 발표
+     - 일정: 2024년 2월 2일(금) 14:00
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 최초 합격자 등록
+     - 일정: 2024년 2월 7일(수) ~ 2월 13일(화) (은행마감시간 내)
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 1차 (인터넷) 발표
+     - 일정: 2024년 2월 14일(수) 09:00
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 1차 (인터넷) 등록
+     - 일정: 2024년 2월 14일(수) 09:00 ~ 16:00
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 2차 (인터넷) 발표
+     - 일정: 2024년 2월 15일(목) 09:00
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 2차 (인터넷) 등록
+     - 일정: 2024년 2월 15일(목) 09:00 ~ 16:00
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 3차 이후 (개별 전화 통보) 발표
+     - 일정: 2024년 2월 15일(목) 19:00 ~ 2024년 2월 20일(화) 18시까지
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 3차 이후 (개별 전화 통보) 등록
+     - 일정: 개별 전화 통보 시 안내
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+추가 유의사항:
+- 최초합격자 및 1차, 2차 충원합격자 발표는 홈페이지를 통해 실시하며, 모든 지원자는 전형일정에 명시된 합격자 발표일에 합격 여부를 홈페이지를 통해 확인해야 합니다. 별도 개별 연락을 실시하지 않으며, 합격 여부 미확인으로 인해 등록하지 못했다 하더라도 등록(입학) 포기자로 간주합니다.
+- 최초 및 충원합격자는 전형일정에 명시된 등록 일정을 참고하여 지정 기일 내에 등록금을 납부해야 하며, 지정 기일 내에 등록금을 납부하지 않는 경우 입학을 포기하는 것으로 간주합니다.</t>
+        </is>
+      </c>
+      <c r="C252" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교 정시모집의 주요 일정은 다음과 같습니다:
+1. **모집인원 확정 공고**:
+   - 날짜: 2024년 1월 2일 (화)
+   - 방법: 입학안내 홈페이지 공고
+2. **원서접수(인터넷)**:
+   - 기간: 2024년 1월 3일 (수) ~ 2024년 1월 6일 (토)
+   - 마감 시간: 각 날짜별 18시까지
+   - 접수 사이트: http://ipsi.deu.ac.kr 또는 http://www.uwayapply.com
+3. **서류 제출**:
+   - 기간: 2024년 1월 3일 (수) ~ 2024년 1월 12일 (금)
+   - 마감 시간: 각 날짜별 17시까지 도착
+   - 대상: 서류 제출이 필요한 모집단위
+4. **&lt;가&gt;군 실기고사**:
+   - 레저스포츠학과, 태권도학과: 2024년 1월 16일 (화)
+   - 디자인조형학과(시각디자인, 산업디자인, 공예디자인), 체육학과: 2024년 1월 17일 (수)
+5. **&lt;나&gt;군 실기고사**:
+   - 디자인조형학과(시각디자인, 산업디자인, 공예디자인), 체육학과: 2024년 1월 17일 (수)
+6. **합격자 발표 및 등록금 납부**:
+   - 최초 합격자 발표: &lt;가&gt;군, &lt;나&gt;군, &lt;다&gt;군 2024년 2월 2일 (금) 14:00
+   - 최초 합격자 등록: 2024년 2월 7일 (수) ~ 2024년 2월 13일 (화)
+   - 충원 합격자 발표 및 등록: 
+     - 1차: 2024년 2월 14일 (수) 09:00
+     - 2차: 2024년 2월 15일 (목) 09:00
+   - 충원 합격자 3차 이후 발표 및 등록: 개별 전화 통보 시 안내
+7. **비고**:
+   - 최초합격자 및 1차, 2차 충원합격자는 홈페이지를 통해 확인해야 함.
+   - 지정 기일 내에 등록금을 납부하지 않으면 입학 포기로 간주됨.
+이 일정은 일반적인 정시모집 일정이며, 일부 모집단위는 특별한 전형요소가 있을 수 있으므로 공지사항과 안내를 꼭 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="D252" t="n">
+        <v>0.3640710517420315</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 일정은 다음과 같습니다:
+1. 모집인원 확정 공고: 2024년 1월 2일(화)에 입학안내 홈페이지에 공고됩니다.
+2. 원서접수(인터넷): 2024년 1월 3일(수)부터 2024년 1월 6일(토) 18시까지 진행됩니다. 접수는 [입학안내 홈페이지](http://ipsi.deu.ac.kr) 또는 [유웨이 어플라이](http://www.uwayapply.com)에서 가능합니다.
+3. 서류 제출 (제출서류가 있는 경우): 2024년 1월 3일(수)부터 2024년 1월 12일(금) 17시까지 도착해야 합니다. 서류 제출 대상자는 접수 사이트에서 우편발송용 표지를 출력하여 부착 후 제출하거나 우편으로 발송해야 합니다.
+4. 실기고사 일정:
+   - &lt;가&gt;군 실기고사: 레저스포츠학과, 태권도학과는 2024년 1월 16일(화)에 실시됩니다. 대기실 및 입실시간 안내는 2024년 1월 12일(금) 14:00 이후 입학안내 홈페이지에서 조회할 수 있습니다.
+   - &lt;나&gt;군 실기고사: 디자인조형학과(시각디자인, 산업디자인, 공예디자인), 체육학과는 2024년 1월 17일(수)에 실시됩니다. 대기실 및 입실시간 안내는 2024년 1월 12일(금) 14:00 이후 입학안내 홈페이지에서 조회할 수 있습니다.
+5. 합격자 발표 및 등록금 납부:
+   - 최초 합격자 발표: &lt;가&gt;군, &lt;나&gt;군, &lt;다&gt;군 모두 2024년 2월 2일(금) 14:00에 발표됩니다. 발표는 홈페이지에서 개별 조회할 수 있으며, 고지서는 홈페이지에서 출력하거나 입학관리팀에서 수령할 수 있습니다. 등록장소는 학교 지정은행입니다.
+   - 최초 합격자 등록: 2024년 2월 7일(수)부터 2월 13일(화)까지 은행 마감시간 내에 등록해야 합니다.
+   - 충원 합격자 발표 및 등록:
+     - 1차 발표: 2024년 2월 14일(수) 09:00, 등록은 같은 날 09:00~16:00
+     - 2차 발표: 2024년 2월 15일(목) 09:00, 등록은 같은 날 09:00~16:00
+     - 3차 이후 발표: 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18:00까지 개별 전화 통보, 등록은 개별 전화 통보 시 안내됩니다.
+모든 지원자는 전형일정에 명시된 합격자 발표일에 홈페이지를 통해 합격 여부를 확인해야 하며, 지정 기일 내에 등록금을 납부하지 않으면 입학을 포기하는 것으로 간주됩니다.</t>
+        </is>
+      </c>
+      <c r="C253" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 일정은 다음과 같습니다:
+1. **모집인원 확정 공고**: 2024년 1월 2일 (화요일)
+   - 입학 안내 홈페이지에서 공고가 게재됩니다.
+2. **원서접수(인터넷)**: 2024년 1월 3일 (수요일) ~ 2024년 1월 6일 (토요일) 마감일 18시까지
+   - 접수 사이트: http://ipsi.deu.ac.kr 또는 http://www.uwayapply.com
+3. **서류 제출 (제출서류가 있는 경우)**: 2024년 1월 3일 (수요일) ~ 2024년 1월 12일 (금요일) 마감일 17시까지 도착
+   - 서류 제출 대상: 전형별 세부 안내 참조
+4. **&lt;가&gt;군 실기고사**: 레저스포츠학과, 태권도학과는 2024년 1월 16일 (화요일)
+   - 대기실 및 입실시간 안내: 2024년 1월 12일 (금요일) 14:00 이후
+5. **&lt;나&gt;군 실기고사**: 디자인조형학과, 체육학과는 2024년 1월 17일 (수요일)
+   - 대기실 및 입실시간 안내: 2024년 1월 12일 (금요일) 14:00 이후
+6. **합격자 발표 및 등록금 납부**: 
+   - 최초 합격자 발표: 2024년 2월 2일 (금요일) 14:00
+     - 홈페이지에서 개별 조회 가능, 고지서는 출력 또는 입학관리팀에서 수령 가능
+   - 최초 합격자 등록: 2024년 2월 7일 (수요일) ~ 2024년 2월 13일 (화요일)
+     - 홈페이지에서 개별 조회, 고지서는 출력 또는 입학관리팀에서 수령 가능
+   - 충원 합격자 발표 및 등록: 
+     - 1차: 2024년 2월 14일 (수요일) 09:00
+     - 2차: 2024년 2월 15일 (목요일) 09:00
+7. **합격자 발표 및 등록금 납부**: 
+   - 충원 합격자 3차 이후 (개별 전화 통보): 2024년 2월 15일 (목요일) 19:00 ~ 2024년 2월 20일 (화요일) 18시까지
+     - 홈페이지에서 개별 조회, 고지서는 출력 또는 입학관리팀에서 수령 가능
+**주의사항**: 
+- 모든 지원자는 전형 일정에 명시된 합격자 발표일에 합격 여부를 반드시 확인해야 합니다.
+- 최초합격자 및 1차, 2차 충원합격자에게는 별도 개인 연락을 실시하지 않으며, 합격 여부 미확인으로 인해 등록하지 못했다 하더라도 등록(입학) 포기자로 간주됩니다.
+- 지정 기일 내에 등록금을 납부하지 않은 경우 우리대학 입학을 포기하는 것으로 간주합니다.
+위 일정은 일반적인 일정이며, 일부 모집단위의 경우 교육부 승인 결과에 따라 변경될 수 있으므로 공식 홈페이지를 확인하시길 권장드립니다.</t>
+        </is>
+      </c>
+      <c r="D253" t="n">
+        <v>0.6925777013802675</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 전형에서는 수능 성적자료의 온라인 제공에 동의하는 것으로 간주되며, 수능 성적이 요구됩니다. 따라서 수능 미응시자는 지원이 불가능합니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C254" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 정시 모집 전형 중 수능 미응시자도 지원 가능한 전형은 다음과 같습니다:
+1. 실기/실적 위주전형 (가군, 나군)
+   - 레저스포츠학과
+   - 태권도학과
+   - 디자인조형학과
+   - 체육학과
+   - 경기지도학과
+2. 학생부교과전형 (나군)
+   - 한의예과 (수학 미적분/기하 응시자)
+3. 학생부종합전형 (나군, 다군)
+   - 평생학습자전형
+   - 성인학습자(정원내)전형
+   - 성인학습자(정원외)전형
+   - 재직자전형
+   - 조기취업형계약학과전형
+이러한 전형들은 수능을 요구하지 않거나, 수능 미응시자도 지원 가능하도록 제도화되어 있습니다.</t>
+        </is>
+      </c>
+      <c r="D254" t="n">
+        <v>0.05762198643734997</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B255" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 전형에는 충원 합격 차수에 대한 정보가 존재하지않습니다.
+전년도의 전자공학과의 충원 합격은 36명까지 이루어졌습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C255" t="inlineStr">
+        <is>
+          <t>2024년도 모집 정보를 바탕으로, 전자공학과의 경우 최초합격자를 포함해 2차 충원합격자가 발표되었습니다. 따라서 전년도에도 비슷한 방식으로 진행되었을 가능성이 높습니다만, 정확한 전년도 충원 합격 차수에 대한 정보는 제공된 데이터에서 확인할 수 없습니다. 전년도 자료를 확인하시려면 대학 입학처 웹사이트나 관련 공지사항을 참조해보시는 것이 좋겠습니다.</t>
+        </is>
+      </c>
+      <c r="D255" t="n">
+        <v>0.2554517884519824</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B256" t="inlineStr">
+        <is>
+          <t>동의대학교 입학관리팀 연락처는 051-890-4379~89입니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C256" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보에는 동의대학교 입학처의 직접적인 연락 번호가 포함되어 있지 않습니다. 웹사이트나 기타 문서에서 해당 정보를 찾지 못한 경우, 공식 홈페이지의 연락처 페이지 또는 "https://ipsi.deu.ac.kr" 링크를 통해 추가 정보를 확인해 보시기 바랍니다. 필요하다면 (주)유웨이어플라이 : 1588-8988(http://www.uwayapply.com)로 문의하시거나 직접 동의대학교 입학처 웹사이트를 방문하여 연락 번호를 찾으시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="D256" t="n">
+        <v>0.09128339008941487</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B257" t="inlineStr">
+        <is>
+          <t>3차 이후 충원합격자 발표 과정에서 전화 연락이 두절되어(3회 통화 시도) 충원합격 통보가 어려운 경우, 해당 지원자는 등록 의사가 없는 것으로 간주되어 등록 포기자로 처리됩니다. 따라서 충원합격자 발표 기간(2024년 2월 15일(목)~2024년 2월 20일(화)) 동안 전화 연락을 받을 수 있도록 유의해야 합니다.</t>
+        </is>
+      </c>
+      <c r="C257" t="inlineStr">
+        <is>
+          <t>3차 이후 충원합격자 발표 과정에서 전화 연락 두절(3회 통화)로 인해 충원합격 통보가 어려운 경우, 충원합격이 되었으나 등록 의사가 없는 등록 포기자로 간주됩니다. 따라서 지원자는 충원합격자 발표 기간(2024년 2월 15일(목)~2024년 2월 20일(화))에 전화 연락을 받지 못하는 일이 없도록 유의해야 합니다.
+요약하면:
+- 3차 이후 충원합격자 발표 시 전화 통화가 두절되면
+- 해당 지원자는 충원합격이 되었으나 등록 의사가 없는 것으로 간주됩니다.
+- 이 경우 등록 포기자로 처리될 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="D257" t="n">
+        <v>0.4727731380789634</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B258" t="inlineStr">
+        <is>
+          <t>농어촌학생전형으로 지원 시 제출해야 할 서류는 다음과 같습니다
+6년 과정
+지원자 본인의 가족관계증명서 1부
+지원자 본인, 부, 모의 주민등록초본 각 1부 (총 3부)
+중학교 학교생활기록부 1부
+교육기관(초·중·고교), 공공기관, 무인민원발급기, 인터넷 정부24에서 발급
+고등학교 학교생활기록부 1부 (학생부 온라인 제공 비대상교 및 미동의자)
+부모가 사망한 경우: 사망한 부 또는 모의 기본증명서 1부 (기본증명서에 ‘사망’이 명시되어 있지 않은 경우 제적등본 1부 추가 제출)
+부모가 이혼한 경우: 친권이 있는 부 또는 모의 혼인관계증명서(상세) 1부, 본인의 기본증명서(상세) 1부 추가 제출
+12년 과정
+지원자 본인의 주민등록초본 1부
+초등학교 학교생활기록부 1부
+중학교 학교생활기록부 1부
+고등학교 학교생활기록부 1부 (학생부 온라인 제공 비대상교 및 미동의자)
+중·고등학교 재학 시 부, 모 모두 농어촌(읍·면)지역에서 거주한 자는 ‘6년과정' 서류 제출 가능
+교육기관(초·중·고교), 공공기관, 무인민원발급기, 인터넷 정부24에서 발급
+추가 정보
+제출기간: 2024. 01. 03.(수) ~ 01. 12.(금) 17:00까지 도착분에 한함
+제출장소: (우: 47340) 부산광역시 부산진구 엄광로 176, 동의대학교 입학관리팀
+주의사항: 제출서류 미제출자는 불합격 처리됩니다. 
+주민등록초본, 가족관계증명서, 혼인관계증명서, 기본증명서는 주민등록번호 전체가 기재되어 있어야 하며, 주소변동사항이 포함된 서류를 발급받아 제출하여야 합니다.
+상기 서류는 2024년 1월 1일 이후에 발급된 서류에 한해 제출해야 합니다. 
+최종등록자 중 고교 졸업예정자는 졸업 이후 지원자격 증빙서류를 2024. 02. 16.(금)까지 추가 제출하여야 합니다.</t>
+        </is>
+      </c>
+      <c r="C258" t="inlineStr">
+        <is>
+          <t>6년 과정과 12년 과정의 농어촌학생전형으로 지원시 각각 다음과 같은 서류를 제출해야 합니다:
+### 6년 과정 (중·고등학교에서 전 교육과정을 이수한 자)
+- 지원자 본인의 가족관계증명서 1부
+- 지원자 본인, 부모의 주민등록초본 각 1부 (총 3부)
+- 중학교 학교생활기록부 1부 
+- 고등학교 학교생활기록부 1부
+### 12년 과정 (초·중·고등학교 전 교육과정을 농어촌 지역 소재 학교에서 이수한 자)
+- 지원자 본인의 주민등록초본 1부
+- 초등학교 학교생활기록부 1부
+- 중학교 학교생활기록부 1부
+- 고등학교 학교생활기록부 1부
+**추가 정보:**
+- 제출기간은 2024년 1월 3일(수)부터 1월 12일(금)까지입니다.
+- 제출장소는 (우: 47340) 부산광역시 부산진구 엄광로 176, 동의대학교 입학관리팀입니다.
+- 주민등록초본은 2024년 1월 1일 이후 발급된 것으로 제출해야 합니다.
+- 서류 미제출자는 불합격 처리됩니다.
+이러한 정보를 참고하여 필요한 서류를 준비하시면 됩니다.</t>
+        </is>
+      </c>
+      <c r="D258" t="n">
+        <v>0.4118891535340057</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B259" t="inlineStr">
+        <is>
+          <t>농어촌학생전형으로 지원 시 12년 과정이 제출해야 할 서류는 다음과 같습니다
+1. 지원자 본인의 주민등록초본 1부
+2. 초등학교 학교생활기록부 1부
+3. 중학교 학교생활기록부 1부
+4. 고등학교 학교생활기록부 1부 (학생부 온라인 제공 비대상교 및 미동의자)
+추가로, 최종등록자라면 다음 서류도 제출해야 합니다
+1. 고교 졸업증명서
+2. 지원자 본인의 주민등록초본 1부 주민등록초본은 고교 졸업 이후 발급된 것이어야 하며, 주소변동사항이 포함된 서류를 발급받아 제출해야 합니다.</t>
+        </is>
+      </c>
+      <c r="C259" t="inlineStr">
+        <is>
+          <t>12년 과정의 농어촌학생전형 지원 시 제출해야 하는 서류는 다음과 같습니다:
+- 지원자 본인의 주민등록초본 1부
+- 초등학교 학교생활기록부 1부 
+- 중학교 학교생활기록부 1부
+- 고등학교 학교생활기록부 1부(학생부 온라인 제공 비대상교 및 미동의자)
+추가로 주의할 점:
+- 중·고등학교 재학 시 부모 모두 농어촌 지역에서 거주한 자는 '6년과정' 서류제출이 가능합니다.
+- 제출서류는 2024년 1월 1일 이후 발급된 것으로 제출해야 합니다.
+위와 같은 서류를 정확하게 준비하여 제출해야 합니다.</t>
+        </is>
+      </c>
+      <c r="D259" t="n">
+        <v>0.6214128022576996</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B260" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 전형에는 기회균등 전형이라는 전형이 존재하지 않습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C260" t="inlineStr">
+        <is>
+          <t>提供的信息中并没有明确提到在普通入学考试(정시모집)中的低收入机会均等特殊招生计划。相关信息主要集中在以下几个方面：
+1. 没有提及任何关于“低收入机会均等”或类似名称的特殊招生计划。
+2. 表格内容主要涉及不同学院、专业和招生类型的详细信息，包括考试类型（如一般学生考试、技能/成绩考试）、录取人数、科目要求等。
+3. 有关奖学金和其他特殊招生计划的信息没有出现在提供的表格中。
+因此根据给出的信息，无法确认是否在普通入学考试中有低收入机会均等的特殊招生计划。如果学校确实有此类计划，相关信息可能未包含在这份材料中或不在公开发布的部分。建议直接咨询学校的招生办公室以获取最准确的信息。</t>
+        </is>
+      </c>
+      <c r="D260" t="n">
+        <v>0.01207115606174988</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B261" t="inlineStr">
+        <is>
+          <t>제공된 데이터에는 수능 최저등급에 대한 구체적인 절사 여부에 대한 정보가 포함되어 있지 않습니다. 따라서, 수능 최저등급에서 사탐 2 과목 평균산출 시 2.5등급이 나올 경우 절사 여부에 대한 정확한 정보를 확인하려면 입학안내 홈페이지(http://ipsi.deu.ac.kr)에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C261" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 등급 평균을 산출할 때 소수점 셋째자리에서 절사한다는 내용이 포함되어 있습니다. 따라서 사탐(사회탐구) 2과목의 평균산출 시 2.5등급은 2등급으로 절사될 것입니다.
+예를 들어:
+- 과목1: 3등급
+- 과목2: 2등급
+평균 = (3 + 2) / 2 = 2.5 등급 → 2등급으로 절사됨
+따라서, 2.5등급은 2등급으로 반영될 것입니다.</t>
+        </is>
+      </c>
+      <c r="D261" t="n">
+        <v>0.2528215644991201</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B262" t="inlineStr">
+        <is>
+          <t>정시 충원 합격자 발표는 3차까지 있으며, 3차 이후에는 개별 전화 통보로 발표됩니다. - 1차 발표: 2024. 02. 14.(수) 09:00 - 2차 발표: 2024. 02. 15.(목) 09:00 - 3차 이후 발표: 2024. 02. 15.(목) 19:00 ~ 2024. 02. 20.(화) 18시까지 3차 이후 발표는 개별 전화 통보로 진행됩니다.</t>
+        </is>
+      </c>
+      <c r="C262" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교 정시 모집에서 충원 합격자는 총 3차로 발표됩니다.
+1. 첫 번째 충원 합격자 발표: 2024년 2월 14일(수)
+2. 두 번째 충원 합격자 발표: 2024년 2월 15일(목)
+3. 세 번째 이후 충원 합격자 발표: 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화)까지
+이러한 순서로 충원 합격자를 발표하며, 최종적으로 3차 이후의 충원 합격자는 2024년 2월 15일(목)부터 20일(화)까지 발표됩니다.</t>
+        </is>
+      </c>
+      <c r="D262" t="n">
+        <v>0.3764489995984244</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B263" t="inlineStr">
+        <is>
+          <t>제공된 컨텍스트에 따라 e-비즈니스학과(e-비즈니스학과)의 최초 합격자 및 최종 등록생의 평균 점수는 다음과 같습니다:
+- 최초합격자:
+  - 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 환산 점수 합: 317.20 (평균)
+  - 영어 등급 3.20 (평균)
+  - 수능 4개 영역 등급 4.17 (평균)
+  - 수능 4개 영역 (가산점 포함) 표준 변환 점수 합: 438.60 (평균)
+- 최종 등록 학생:
+  - 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합: 308.58 (평균)
+  - 영어 등급 3.66 (평균)
+  - 수능 4개 영역 등급 4.53 (평균)
+  - 수능 4개 영역 (가산점 포함) 표준 변환 점수 합: 426.25 (평균)
+수능 4개 영역 등급이 4.6점이라면 최초 합격자(4.17점)와 최종 등록자(4.53점) 모두 평균을 약간 상회하는 수준입니다. 반드시 합격이 보장되는 것은 아니지만 다른 영역(국어, 수학, 탐구, 영어) 성적이 경쟁력이 있다면 충원 합격(추가모집)을 통해 합격할 가능성이 있습니다. 
+보다 정확한 평가를 위해 총 표준 변환 점수 합과 제공된 평균을 비교하는 것이 좋습니다. 총점이 평균에 근접하거나 그 이상이면 충원 합격을 통해 합격할 가능성이 더 높을 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="C263" t="inlineStr">
+        <is>
+          <t>为了回答这个问题，我们需要查看一些具体信息：
+1. **e비즈니스학과의 모집인원 및 지원자 수**: e비즈니스학과의 정시 모집인원과 최초합격자의 수를 확인해야 합니다.
+2. **수능 성적 평균 및 표준편차**: 주어진 데이터에서 e비즈니스학과의 수능 4개 영역 (국어, 수학, 영어, 탐구) 등급 평균과 표준편차를 확인합니다。
+3. **등급 변환표준점수**: 한의예과와 같이 백분위에 따른 변환표준점수가 적용되는 경우, 해당 변환표준점수를 확인해야 합니다。
+根据您提供的数据，e비즈니스学和的2024年招生情况如下：
+- 招生人数：10人
+- 报名人数：89人
+- 竞争比：8.90
+从这些信息来看，e비즈니斯学和的竞争非常激烈。我们需要进一步查看具体的成绩分布情况。
+假设e비즈尼斯学和的等第平均分为4.6，并且该分数在所有考生中的排名较高（例如前10%），那么有可能通过正试补录获得录取机会。但是，如果竞争比非常高，即使成绩不错也可能因为名额有限而未能被录取。
+具体来说：
+- 如果e비즈尼斯学和的等第平均分为4.6，并且该分数在所有考生中的排名较高（例如前10%），那么有可能通过正试补录获得录取机会。
+- 但是，如果竞争比非常高，即使成绩不错也可能因为名额有限而未能被录取。
+因此，建议您查看e비즈尼斯学和的具体招生情况以及等第分布表。如果有疑问，可以咨询学校招生办公室以获取更准确的信息。</t>
+        </is>
+      </c>
+      <c r="D263" t="n">
+        <v>0.196789483744874</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B264" t="inlineStr">
+        <is>
+          <t>e비즈니스학과의 최종등록자 데이터를 기준으로 보면, e비즈니스학과의 영어 등급 평균은 3.66이고, 수능 4개 영역 등급 평균은 4.53입니다. 따라서, 현재 정시 등급이 5.3이라면 e비즈니스학과에 합격하기 어려울 수 있습니다. e비즈니스학과의 평균 등급보다 높은 성적을 가지고 있어야 합격 가능성이 높아집니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C264" t="inlineStr">
+        <is>
+          <t>为了回答这个问题，我们需要考虑以下几个因素：
+1. **eBiz니스학과의 모집인원 및 지원자 수**: 根据提供的表格数据，eBiz니스学和的2024年招生名额为30人，但实际申请人数为89人。
+2. **竞争率**：根据表格中的数据，eBiz니스学和的竞争率为8.90。这意味着平均每个名额有近9名学生在争夺。
+3. **成绩要求**：虽然没有直接给出具体的最低录取分数线，但我们可以通过分析其他类似专业的录取情况来推测。通常情况下，同等级别的专业会有相似的录取标准。
+4. **个人成绩与平均值比较**：根据提供的表格数据，eBiz니스学和的国语+数学+选修（2个）标准化转换分数均值为317.20，标准差为7.56。英语等级均值为3.20，标准差为1.24。数学科目等级均值为4.17，标准差为0.19。
+假设你的成绩是国语+数学+选修（2个）的标准化转换分数为5.3，并且英语等级为5.3或以上，那么你的成绩应该在平均分之上，甚至可能接近最高分。这表明你有较好的竞争力。
+综上所述，如果你的成绩确实达到了上述标准，特别是如果国语、数学和选修科目的标准化转换分数都较高，那么你有可能被eBiz니스学和录取为最初始的合格者之一。但是，最终结果还需要根据具体的录取分数线来确定。
+建议：
+1. 查看最新的招生简章或咨询学校招生办公室以获取更准确的信息。
+2. 如果可能的话，参考往年的录取分数线进行预估。
+3. 准备充分，确保所有申请材料都符合要求，并且在面试或其他环节中表现出色。</t>
+        </is>
+      </c>
+      <c r="D264" t="n">
+        <v>0.01861683693004321</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B265" t="inlineStr">
+        <is>
+          <t>e비즈니스학과의 최종등록자 데이터를 기준으로 보면, 충원합격(후보 순위) 31번까지 충원합격 된 것으로 나온다. 따라서, 현재 예비 38번이라면 e비즈니스학과에 예비 합격할 가능성이 낮습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C265" t="inlineStr">
+        <is>
+          <t>为了回答这个问题，我们需要考虑以下几个因素：
+1. 您提供的信息不完整。您没有提供具体的分数或排名。
+2. 不同专业的录取标准和竞争情况可能不同。
+3. 即使是同一专业，不同年份的录取分数线也可能有所变化。
+基于您提供的表格中的数据，我们可以做一些大致的分析：
+- e비즈니스학과 (电子商务学系) 的总招生人数为 10人。
+- 该专业的平均国语、数学、英语和韩国史/道德等科目的等级分别为4.53、5.78、5.25 和 5.04。
+- 平均综合转换分为 434.70 分。
+根据这些数据，您的成绩似乎接近或略低于该专业的平均线。但是，这并不意味着您一定不能被录取，因为：
+1. 您的成绩可能在其他方面（如面试、推荐信等）有优势。
+2. 竞争情况每年可能会有所不同，有些年份的竞争压力较小。
+建议：
+- 请提供具体的分数或排名信息以便进行更准确的评估。
+- 建议您关注学校发布的最新招生政策和录取分数线。
+- 准备充分参加面试和其他可能的选拔环节。</t>
+        </is>
+      </c>
+      <c r="D265" t="n">
+        <v>0.02535640003272942</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B266" t="inlineStr">
+        <is>
+          <t>간호학과의 최종등록자 데이터를 기준으로 보면, 간호학과의 영어 등급 평균은 2.34이고, 수능 4개 영역 등급 평균은 3.37입니다. 따라서, 현재 정시 등급이 3.44이라면 간호학과에 합격하기 어려울 수 있습니다. 간호학과의 평균 등급보다 높은 성적을 가지고 있어야 합격 가능성이 높아집니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C266" t="inlineStr">
+        <is>
+          <t>3.44라는 점수만으로는 확실한 결론을 내리기는 어렵습니다. 하지만 동의대학교 간호학과의 경쟁률과 평균 성적 등을 고려해보면 다음과 같은 판단이 가능합니다:
+1. 동의대학교 간호학과:
+   - 2024년 최종 등록자 중 평균 점수: 3.50
+   - 경쟁률: 6.59
+2. 현재 성적 (3.44):
+   - 약간 낮은 편입니다.
+   - 하지만 매우 가까운 수치입니다.
+추천 사항:
+1. 추가 지원을 고려해보세요. 다른 대학이나 전공도 함께 준비해보는 것이 좋습니다.
+2. 간호학과의 경쟁률이 높아서 합격 확률은 낮지만, 최소한의 기회를 위해서는 지원하는 것이 바람직합니다.
+3. 동의대학교 간호학과에만 집중적으로 준비한다면, 조금 더 높은 점수를 얻을 수 있을 가능성이 있습니다.
+결론적으로, 3.44라는 성적로는 합격 확률이 낮지만, 최소한의 기회를 위해서는 지원하는 것이 좋습니다. 추가 지원과 함께 꾸준히 준비하는 것이 중요합니다.</t>
+        </is>
+      </c>
+      <c r="D266" t="n">
+        <v>0.1209059814765421</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B267" t="inlineStr">
+        <is>
+          <t>간호학과의 최종등록자 데이터를 보면, 평균 영어 등급은 2.34이고,  수능 4개 영역 등급 평균은 3.37입니다. 
+따라서, 현재 정시 등급이 2.52이라면 간호학과의 평균 등급보다 높은 성적을 가지고 있기 때문에 합격 가능성이 높습니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C267" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교 간호학과에 지원하셨다면, 전형별로 다소 다르게 평가되므로 정확한 답변을 위해서는 몇 가지 정보가 필요합니다:
+1. 지원하신 모집단위 (예: 일반학생전형, 경기실적우수자전형 등)
+2. 수능 성적이 포함된 전체 합격 점수
+3. 다른 평가 요소들 (면접, 서류 등)
+하지만 간호학과의 경우, 전반적으로 높은 수능 점수가 필요합니다. 2024년 동의대학교 간호학과 최종등록자 표를 보면:
+- 모집인원: 22명
+- 지원인원: 145명
+- 경쟁률: 6.59
+수능 성적이 2.52라면, 이 점수만으로는 합격이 어려울 것으로 보입니다. 하지만 수능 외 다른 평가 요소들 (면접, 서류 등)의 결과가 매우 좋다면 가능성이 열리게 됩니다.
+결론적으로, 단순히 수능 성적이 2.52라면 동의대학교 간호학과 최종 합격이 어려울 것으로 보입니다. 하지만 수능 외 다른 평가 요소들에 매우 높은 점수가 있거나 면접 등에서 우수한 평가를 받았다면 가능성이 열리게 됩니다.
+추천하는 것은:
+1. 전형별로 가장 유리한 모집단위를 선택
+2. 수능 외 다른 평가 요소들에 매우 높은 점수가 있음
+3. 면접 등에서 우수한 평가를 받는 것
+이러한 조건들이 충족된다면 합격 가능성은 열리게 됩니다.</t>
+        </is>
+      </c>
+      <c r="D267" t="n">
+        <v>0.03348708858035123</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B268" t="inlineStr">
+        <is>
+          <t>간호학과의 최종등록자 데이터를 기준으로 보면, 간호학과의 영어 등급 평균은 2.34이고, 수능 4개 영역 등급 평균은 3.37입니다. 따라서, 현재 정시 등급이 3.7이라면 간호학과의 평균 등급보다 낮은 성적을 가지고 있기 때문에 합격 가능성이 낮습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C268" t="inlineStr">
+        <is>
+          <t>3.7의 성적은 간호학과의 경쟁률과 모집인원을 고려하면 상대적으로 낮은 점수입니다. 그러나 간호학과는 일반적으로 높은 경쟁률을 보이므로, 단순히 성적이 낮다고 합격할 확률이 떨어지는 것은 맞습니다.
+다음 사항들을 고려해보세요:
+1. 모집인원: 22명
+2. 지원인원: 145명 
+3. 경쟁률: 6.59
+경쟁률이 매우 높기 때문에, 성적이 조금 낮더라도 다음과 같은 요소들이 중요합니다:
+- 학생부가 우수하다면 이점이 될 수 있습니다.
+- 특기사항이나 창의적 체험활동 등이 돋보일 수 있다면 이점이 됩니다.
+- 면접에서 좋은 인상을 줄 수 있다면 이점이 될 수 있습니다.
+결론적으로, 3.7의 성적만으로는 매우 어려울 것으로 보입니다. 그러나 모든 요소를 종합적으로 평가받기 때문에 최선을 다해 지원하는 것이 중요합니다. 학생부, 특기사항 등 다른 부분도 잘 준비해야 합니다.</t>
+        </is>
+      </c>
+      <c r="D268" t="n">
+        <v>0.08278975459248011</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B269" t="inlineStr">
+        <is>
+          <t>간호학과의 최종등록자 데이터를 기준으로 보면, 간호학과의 영어 등급 평균은 2.34이고, 수능 4개 영역 등급 평균은 3.37입니다. 따라서, 현재 정시 등급이 2.58이라면 간호학과의 평균 등급보다 높은 성적을 가지고 있기 때문에 합격 가능성이 높습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C269" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교 간호학과의 정시 모집인원과 지원 인원을 확인해보겠습니다.
+간호학과의 정보는 다음과 같습니다:
+- 모집 인원: 22명
+- 지원 인원: 145명
+- 경쟁률: 6.59
+이 정보를 바탕으로 간호학과의 경쟁률이 매우 높음을 알 수 있습니다 (6.59). 이는 매우 치열한 경쟁을 의미합니다.
+당신의 성적(국어+수학+탐구 2개: 2.58)은 평균적인 수준에 해당할 것입니다. 그러나 간호학과의 모집인원이 제한적이므로, 이 성적으로 정시로 합격하기는 어렵다고 볼 수 있습니다.
+다만, 다음과 같은 요소들이 합격 가능성에 영향을 미칠 수 있습니다:
+1. 수능 최저 점수 기준: 동의대학교 간호학과에는 수능 최저 점수가 설정되어 있을 수 있습니다. 이 점수를 넘어야 합니다.
+2. 전형별 특성: 일부 학과는 특정 영역에서 높은 성적을 요구할 수 있습니다 (예: 과학, 영어 등).
+3. 지원자의 전체적인 경쟁력: 다른 지원자들의 성적과 경쟁력을 고려해야 합니다.
+따라서, 정확한 답변을 위해서는 동의대학교 간호학과의 최저 점수 기준과 전형별 특성을 확인하는 것이 필요합니다. 
+추천되는 조치:
+1. 동의대학교 입학 홈페이지를 방문하여 가장 최신 정보를 확인하세요.
+2. 해당 학과의 수능 최저 점수 기준을 찾아보세요.
+3. 다른 지원자들의 성적 분포도 참고해 보세요.
+이러한 정보들을 종합적으로 고려하면 더 정확한 판단을 내릴 수 있을 것입니다.</t>
+        </is>
+      </c>
+      <c r="D269" t="n">
+        <v>0.02614259108227819</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B270" t="inlineStr">
+        <is>
+          <t>게임공학과의 최종등록자 데이터를 기준으로 보면, 충원합격(후보 순위) 3번까지 충원합격 된 것으로 나온다. 따라서, 현재 예비 7번이라면 게임공학과에 예비 합격할 가능성이 낮다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C270" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교 정시모집에서 게임공학과의 모집인원은 3명이며, 현재 게임공학과의 최종합격자 및 충원합격자는 표에 나와 있지 않습니다. 따라서 예비번호 7번으로 붙을 가능성이 있습니다.
+하지만 확실한 정보를 얻기 위해서는 다음과 같은 절차를 따르시는 것이 좋습니다:
+1. 동의대학교 입학 홈페이지를 확인해보세요.
+2. 합격자 발표 및 충원합격자 발표 페이지를 확인하여 게임공학과의 최종합격자와 충원합격자를 확인하세요.
+3. 만약 최종합격자와 충원합격자가 모두 3명이 넘지 않는다면, 예비번호 7번으로 붙을 가능성이 높습니다.
+또한, 합격자 발표 이후에도 등록금 납부 기간 동안에는 합격 여부가 변경될 수 있으므로, 최신 정보를 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="D270" t="n">
+        <v>0.1206335737510878</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B271" t="inlineStr">
+        <is>
+          <t>게임공학과의 최종등록자 데이터를 기준으로 보면, 게임공학과의 영어 등급 평균은 3.25이고, 수능 4개 영역 등급 평균은 4.78입니다. 따라서, 현재 정시 등급이 4.16이라면 게임공학과의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다. 단, 추가 합격 몇 번을 받을지는 예측하기 어렵습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C271" t="inlineStr">
+        <is>
+          <t>4.16이라는 점수는 표준점수로 보이는데, 이 점수만으로 정확한 추가합격 가능 횟수를 예측하기는 어렵습니다. 그러나 다음과 같은 요소들을 고려해볼 수 있습니다:
+1. **과목별 성적**: 4.16이라는 점수는 주로 영어 등급을 나타내는 것으로 보입니다. 게임공학과의 경우, 수능 영어 과목은 중요할 것입니다.
+2. **경쟁률**: 게임공학과의 경쟁률이 매우 높습니다 (5.33). 이는 추가합격 가능성도 낮을 가능성이 있습니다.
+3. **전형 유형**: 정시 전형에서 수능 위주로 평가되는 경우, 수능 점수만으로 합격하기는 어렵습니다. 면접이나 서류평가 등 다른 요소들도 중요할 것입니다.
+4. **추가합격 가능 횟수**: 게임공학과의 추가합격 가능성은 매우 낮을 것으로 보입니다. 경쟁률이 높고, 수능 점수만으로 합격하기는 어렵습니다.
+따라서 4.16정도의 수능 영어 점수로 동의대학교 게임공학과에 정시 전형으로 지원하면 추가합격 횟수가 매우 낮을 것으로 예측됩니다. 가장 낮은 경우, 추가합격이 없을 수도 있습니다.
+만약 더 자세한 정보를 원한다면, 해당 과목의 최근 수능 성적 분석이나 동일한 점수를 받은 다른 지원자의 결과 등을 참고해보는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="D271" t="n">
+        <v>0.08861373708539434</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B272" t="inlineStr">
+        <is>
+          <t>경영정보학과의 최초등록자 데이터를 기준으로 보면, 경영정보학과의 영어 등급 평균은 2.88이고, 수능 4개 영역 등급 평균은 3.88입니다.
+따라서, 현재 정시 등급이 3.75이라면 경영정보학과의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다. 즉, 최초합격 가능성은 높아보입니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C272" t="inlineStr">
+        <is>
+          <t>为了回答这个问题，我们需要查看与"경영정보학과(정시)"相关的具体招生信息。根据您提供的表格内容，我们可以参考以下几个关键点来判断：
+1. **招生类型**：您提到的是“경영정보학과 (정시)”，这对应于“나군 수능(일반학생전형)”。
+2. **成绩要求**：
+   - 表格中的“수능 반영영역 및 가산점”部分显示，对于 경영정보학과（나군），国语、数学和英语的标准化分数以及探究领域的标准化分数都会被考虑。
+3. **最低录取线**：虽然表格中没有直接给出具体的最低录取分数线，但可以参考“수능성적 반영방법”的内容。通常情况下，如果您的成绩达到或超过该专业的最低录取标准，就有机会被录取。
+根据您提供的信息（国语、数学和英语的标准化分数以及探究领域的标准化分数），3.75 的成绩看起来是符合要求的。但是，具体是否能够被录取还需要参考具体的最低录取分数线和其他因素。
+建议：
+1. 查看学校官网发布的最新招生简章或咨询学校的招生办公室。
+2. 确认是否有其他附加条件或限制。
+3. 关注最终公布的最低录取分数线和实际录取情况。
+如果您能提供更多关于该专业的具体信息，我可以帮助您更准确地判断。</t>
+        </is>
+      </c>
+      <c r="D272" t="n">
+        <v>0.05253142669412918</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B273" t="inlineStr">
+        <is>
+          <t>경영정보학과의 최초등록자 데이터를 기준으로 보면, 경영정보학과의 영어 등급 평균은 2.88이고, 수능 4개 영역 등급 평균은 3.88입니다. 
+따라서, 현재 정시 등급이 4.2이라면 경영정보학과의 평균 등급보다 낮은 성적을 가지고 있어 합격 가능성이 낮습니다. 즉, 최초합격 가능성은 적습니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C273" t="inlineStr">
+        <is>
+          <t>为了回答这个问题，我们需要查看一些关键信息：
+1. 经营信息学部的最低录取分数线是什么？
+2. 您是否属于特殊类型的学生（如农村学生、成人学习者等）？
+根据您提供的表格内容，我们可以做出以下分析：
+1. 对于一般考生（非特殊类型），加群（普通高考招生）中经营信息学部的最低录取标准是基于综合成绩，其中包含：
+   - 高考成绩占100%
+2. 综合成绩计算方法为：国语、数学和英语等值分数 + 研究领域标准分数
+3. 您提供的经营信息学部的成绩为4.2分。
+但是，仅凭这个信息还不足以确定您是否可以被录取。我们需要知道：
+- 该专业的具体最低录取分数线是多少？
+- 是否有其他特殊政策或条件？
+如果您能提供更多详细信息，我可以帮助您更准确地判断您的录取可能性。通常情况下，如果综合成绩达到或超过学校的最低录取线，且没有其他限制条件，那么一般考生是有可能被录取的。
+建议：
+1. 查看学校官网发布的具体招生简章和分数线。
+2. 如果不确定，可以直接联系学校招生办公室进行确认。</t>
+        </is>
+      </c>
+      <c r="D273" t="n">
+        <v>0.01594893972505213</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B274" t="inlineStr">
+        <is>
+          <t>경영정보학과의 최종등록자 데이터를 기준으로 보면, 경영정보학과의 영어 등급 평균은 3.25이고, 수능 4개 영역 등급 평균은 4.31입니다. 따라서, 현재 정시 등급이 5.33이라면 경영정보학과의 평균 등급보다 낮은 성적을 가지고 있어 합격 가능성이 낮습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C274" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교 경영정보학과의 경우, 전반적인 지원 경쟁률이 매우 높습니다 (10.56:1). 또한, 해당 학과의 최종 등록자들의 수능 성적 평균은 다음과 같습니다:
+- 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합: 450.78
+- 영어 등급: 2.88
+- 수능 4개 영역 등급: 3.88
+당신의 수능 성적은 5.33으로, 이는 평균 이상입니다. 그러나 경쟁률이 매우 높고 합격자들의 평균 점수가 상당히 높기 때문에, 합격 확률을 높이려면 다음과 같은 방법들을 고려해볼 수 있습니다:
+1. **추가 지원**: 다른 대학이나 학과의 일반학생전형에 추가로 지원하여 보완할 수 있습니다.
+2. **특기사항 및 자기소개서 강화**: 동의대학교 경영정보학과의 특성에 맞는 특기사항을 작성하고, 자기소개서를 잘 준비해보세요.
+3. **추천서 활용**: 가능하다면 선생님이나 지도교사의 추천서를 받아볼 수 있습니다.
+결론적으로, 당신의 성적은 합격 가능성은 있지만, 경쟁률이 매우 높기 때문에 추가 지원과 자기소개서 등 준비가 필요할 것입니다.</t>
+        </is>
+      </c>
+      <c r="D274" t="n">
+        <v>0.07480734229969958</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B275" t="inlineStr">
+        <is>
+          <t>바이오응용공학부의 최초등록자 데이터를 기준으로 보면, 바이오응용공학부의 영어 등급 평균은 3.82이고, 수능 4개 영역 등급 평균은 4.74입니다. 
+따라서, 현재 정시 등급이 3.33이라면 바이오응용공학부의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다. 즉, 최초합격 가능성은 있습니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C275" t="inlineStr">
+        <is>
+          <t>为了回答这个问题，我们需要查看巴油应用工程学部（假设这是您想申请的“바이오응용공학과”）的相关信息。根据提供的表格数据，我们可以分析以下几个方面：
+1. **招生计划**：首先需要确认巴油应用工程学部是否有招生名额。
+2. **录取标准**：
+   - 国语 + 数学 + 两门选修科目的总分标准化转换分数平均值。
+   - 英语等级的平均值。
+   - 高考四门科目（国语、数学、英语和一门选修课）的总分标准化转换分数平均值。
+3. **竞争情况**：查看该专业的实际报名人数和最终录取人数，以了解竞争程度。
+根据您提供的信息，您的成绩为3.33。我们需要具体数据来判断是否有可能被录取。以下是假设的数据分析步骤：
+1. 查看巴油应用工程学部的招生计划。
+2. 检查该专业过去几年的实际录取情况（如平均分、最低分等）。
+3. 对比您的成绩与这些数据。
+由于您没有提供具体的表格数据，我将基于一般情况给出建议：
+- 如果巴油应用工程学部的平均录取分数为4.0或更高，则您的成绩可能不够竞争力。
+- 如果该专业的竞争相对较小（如报名人数较少），并且您的成绩接近或略高于历史最低录取分数线，则有可能被录取。
+为了更准确地判断，您需要查看具体的招生计划和往年实际录取数据。建议直接参考东国大学官网发布的最新招生简章或咨询学校招生办公室获取最准确的信息。</t>
+        </is>
+      </c>
+      <c r="D275" t="n">
+        <v>0.02506172598991412</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B276" t="inlineStr">
+        <is>
+          <t>방사선학과의 최종등록자 데이터를 기준으로 보면, 방사선학과의 영어 등급 평균은 2.8이고, 수능 4개 영역 등급 평균은 3.82입니다. 
+따라서, 현재 정시 등급이 4.4이라면 방사선학과의 평균 등급보다 낮은 성적을 가지고 있어 합격 가능성이 낮습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C276" t="inlineStr">
+        <is>
+          <t>4.4등급으로 방사선학과에 지원하는 것은 가능하지만 경쟁률이 매우 높을 것으로 예상됩니다.
+방사선학과의 모집인원과 지원자 수를 고려하면 다음과 같은 점들을 주목해야 합니다:
+1. **경쟁률**: 방사선학과는 5명의 모집 인원에 대해 약 72명이 지원하여 14.4:1의 경쟁률을 보이고 있습니다.
+2. **성적 평균**: 표에서 볼 수 있듯이, 이전 합격자들의 국어+수학+탐구(2개) 표준 변환 점수는 약 340점대를 기록하고 있습니다. 
+3. **영어 등급**: 평균 영어 등급은 5.1등급으로, 제출된 데이터에서 가장 낮은 등급입니다.
+4. **전체 성적**: 전반적으로 이전 합격자들의 수능 점수는 상당히 높습니다. 
+따라서:
+- **성적이 좋지 않다면** 경쟁률을 고려하여 다른 모집단위를 검토해보는 것이 좋습니다.
+- **성적과 경쟁률을 고려할 때** 방사선학과에 지원하는 것은 가능하지만, 합격 확률은 낮을 수 있습니다.
+추천 사항:
+1. **다른 모집단위도 검토**: 다른 공과대학의 전공이나 의료보건생활대학의 전공 등을 고려해볼 만합니다.
+2. **면접 준비**: 방사선학과는 면접 점수가 합격에 큰 영향을 미칠 수 있으므로, 면접 준비를 철저히 해야 합니다.
+3. **추가 지원 자료 제출**: 가능하다면 추가적인 지원 자료나 활동 증빙서류 등을 함께 제출하여 자신의 경쟁력을 높일 수 있습니다.
+결국, 최종 결정은 개인의 목표와 상황에 따라 달라질 것입니다.</t>
+        </is>
+      </c>
+      <c r="D276" t="n">
+        <v>0.02546884445217481</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B277" t="inlineStr">
+        <is>
+          <t>방사선학과의 최종등록자 데이터를 기준으로 보면, 방사선학과의 영어 등급 평균은 2.8이고, 수능 4개 영역 등급 평균은 3.82입니다. 
+따라서, 현재 정시 등급이 2.66이라면 이는 귀하의 성적이 평균보다 높음을 의미합니다. 따라서, 귀하는 방사선학과에 합격할 가능성이 있다고 볼 수 있습니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C277" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교 방사선학과 정시에서 2.66이라는 표준변환점수를 받으셨다면, 경쟁률이 매우 높아 보입니다. 아래는 해당 정보를 바탕으로 한 분석입니다:
+1. **경쟁률**: 7.20 (2.66의 표준변환점수에 해당하는 경쟁률)
+   - 이는 매우 높은 경쟁률을 의미합니다.
+2. **합격자 수**: 5명
+   - 합격자 수가 적기 때문에, 낮은 점수로 합격하기 위해서는 특별한 장점이 필요할 것입니다.
+3. **평균점수 및 표준편차**:
+   - 평균: 463.36
+   - 표준편차: 2.74
+4. **전형요소**: 서류 70%, 면접 30%
+   - 이는 학생부와 서류가 매우 중요한 역할을 합니다.
+5. **면접 평균점수**:
+   - 전공적합성: 196점 (평균)
+   - 학업역량: 217점 (평균)
+이러한 상황에서 다음과 같은 조언들이 있습니다:
+- **학생부와 서류의 중요성**: 학생부와 제출서류가 매우 중요한 역할을 합니다. 공동체역량, 학업역량, 전공적합성 등 모든 영역에서 최선을 다해야 합니다.
+- **면접 준비**: 면접에서도 지원동기와 학업계획, 문제해결능력 등을 잘 준비하고 표현해야 합니다.
+- **추천서 활용**: 가능하다면 교사나 직장의 상사로부터 추천서를 받는 것이 도움이 될 수 있습니다.
+- **특성화**: 지원자의 특별한 경험이나 성과가 있다면 이를 강조하는 것이 좋습니다. 예를 들어, 관련 프로젝트나 활동 경험이 있다면 이를 잘 준비해 면접에서 제시해야 합니다.
+결론적으로 2.66이라는 점수는 매우 위험할 수 있지만, 학생부와 서류의 품질, 면접 성과 등을 최대한 끌어올리면 가능성을 높일 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="D277" t="n">
+        <v>0.01980195986694867</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B278" t="inlineStr">
+        <is>
+          <t>제공된 정보에 따르면, 경찰행정학과의 2024학년도 수능(일반학생전형) 최종등록자 평균 수능 4개 영역 등급은 4.12입니다. 귀하의 성적이 3.66이라면, 이는 평균보다 높은 성적입니다. 
+경쟁률이 2020년도에 비해 낮아졌다는 점도 긍정적인 요소로 작용할 수 있습니다. 경쟁률이 낮아지면 합격 가능성이 상대적으로 높아질 수 있기 때문입니다.
+따라서, 귀하의 성적이 평균보다 높고 경쟁률이 낮아진 점을 고려할 때, 희망을 가져도 될 것으로 보입니다. 다만, 최종 결과는 여러 변수에 따라 달라질 수 있으므로, 최선을 다해 준비하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C278" t="inlineStr">
+        <is>
+          <t>3.66의 GPA는 경쟁률과 모집인원에 따라 다르지만, 일반적으로 경찰행정학과나 농어촌 전형에서는 중간적인 성적을 가진 지원자들도 합격하는 경우가 있습니다.
+다음은 몇 가지 고려사항입니다:
+1. **경쟁률**: 각 대학의 정시 모집에서 경찰행정학과와 농어촌 전형의 경쟁률을 확인해야 합니다. 경쟁률이 높다면, 3.66이라는 성적으로 합격하기는 어렵겠지만 낮다면 가능성이 있습니다.
+2. **전형요소**: 농어촌 전형은 종종 지역 특성 등을 고려하므로, 지원자의 출신지나 농어촌 배경이 중요한 요인이 될 수 있습니다.
+3. **추천서 및 자기소개서**: 이 부분에서 좋은 평가를 받으면 성적이 조금 부족해도 합격 가능성은 높아집니다.
+4. **면접 결과**: 면접에서도 지원자의 적합성과 잠재력을 판단하므로, 준비가 충분히 되어 있으면 긍정적인 영향을 줄 수 있습니다.
+5. **기타 성적 요인**: 탐구 과목의 성적이 높다면 이 부분에서 점수를 더 많이 얻을 수 있으므로 합격 가능성은 높아집니다.
+6. **대학별 정책**: 일부 대학에서는 특정 전형에서 GPA 기준이 비교적 낮게 설정되어 있을 수도 있습니다.
+따라서, 최종적으로는 해당 대학의 모집요강과 경쟁률을 확인한 후 결정해야 합니다. 만약 불확실성이 있다면, 학교 입학처에 문의하거나 추가 자료를 요청하는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="D278" t="n">
+        <v>0.1416388066805518</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B279" t="inlineStr">
+        <is>
+          <t>귀하께서 지원하신 학과에 따라서 합격될 확률은 달라질 수 있습니다.
+2024년 동의대학교 일반학생전형에서 예비 25번 이상이 합격한 학과는 다음과 같습니다.
+- **영어영문학과**
+- **경영정보학과**
+- **e비즈니스학과**
+- **간호학과**
+- **신소재공학과**
+- **고분자나노공학과**
+- **의생명공학과**
+- **바이오의약공학과**
+- **식품공학과**
+- **산업경영빅데이터공학과**
+귀하께서 지원하신 학과가 위 학과에 포함된다면, 귀하께서 합격하실 확률은 있다고 볼 수 있습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C279" t="inlineStr">
+        <is>
+          <t>25위라는 위치에서 합격할 확률은 상당히 낮습니다. 하지만 모든 것이 불확실하기 때문에, 다음과 같은 요인들을 고려해볼 수 있습니다:
+1. 모집 인원과 지원자의 경쟁률: 현재의 경쟁률을 확인하고, 예비 25위가 몇 명인지 파악해야 합니다.
+2. 학생들의 성적 분포: 전체 지원자의 성적이 어떻게 분포되어 있는지 알아보세요. 만약 많은 사람들이 높은 점수를 받았다면, 낮은 순위에서도 합격할 가능성이 있습니다.
+3. 동점자 처리 기준: 동점자가 발생했을 때 어떤 기준으로 처리되는지 확인하세요. 이 기준에 따라 예비 25위라도 합격할 수 있는 가능성도 있습니다.
+4. 추가 모집 여부: 만약 모집 인원이 미달되면, 예비 후보들 중 일부가 추가로 선발될 가능성이 있습니다.
+5. 개인의 특성: 창의력, 실기 성적 등 다른 평가 요소들이 합격 결정에 영향을 미칠 수 있으므로, 이 부분에서 우수한 점수를 받았다면 희망이 있을 수 있습니다.
+결론적으로 확실한 것은 아니지만, 낮은 확률임은 분명합니다. 그러나 최선을 다해 준비하고, 추가 모집 가능성 등을 고려하면 조금이라도 더 높은 확률을 얻을 수 있을 것입니다.</t>
+        </is>
+      </c>
+      <c r="D279" t="n">
+        <v>0.1548944155820062</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B280" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 전형에는 법경찰행정학부라는 학부는 존재하지않습니다.  
+동의대학교 경찰행정학과의 최종등록자와 최초합격자의 평균 성적을 비교하여 안정권과 문 닫고 들어갈 수 있는 성적을 추정할 수 있습니다.
+- **최종등록자 평균 성적:**
+   - 국어 + 수학 + 탐구(2개) 표준 변환 점수 합: 332.86
+   - 영어 등급: 4.00
+   - 수능 4개 영역 등급: 4.12
+   - 수능 4개 영역 표준 변환 점수 합: 447.86
+- **최초합격자 평균 성적:**
+  - 국어 + 수학 + 탐구(2개) 표준 변환 점수 합: 330.71
+  - 영어 등급: 3.14
+  - 수능 4개 영역 등급: 3.87
+  - 수능 4개 영역 표준 변환 점수 합: 452.57
+### 안정권과 문 닫고 들어갈 수 있는 성적 추정
+- **경찰행정학과:**
+  - 안정권: 최초합격자 평균 성적에 근접한 성적 (국어 + 수학 + 탐구(2개) 표준 변환 점수 합 약 331점 이상, 수능 4개 영역 표준 변환 점수 합 약 453점 이상)
+  - 문 닫고 들어갈 수 있는 성적: 최종등록자 평균 성적에 근접한 성적 (국어 + 수학 + 탐구(2개) 표준 변환 점수 합 약 333점 이상, 수능 4개 영역 표준 변환 점수 합 약 448점 이상)
+이 성적을 기준으로 준비하시면 안정권 또는 문 닫고 들어갈 수 있는 성적을 받을 수 있을 것입니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C280" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교 법경찰행정학부에 정시로 지원하려면 다음과 같은 점수를 고려해야 합니다:
+1. **최종 등록자 평균 성적**:
+   - 국어 + 수학 + 탐구(2개) 표준 변환 점수 합: 448.29
+   - 영어 등급: 3.00
+   - 수능 4개 영역 (가산점 포함) 표준 변환 점수 합: 448.29
+2. **경쟁률**:
+   - 경쟁률은 5.71:1로 높습니다.
+3. **문 닫고 들어갈 수 있는 기준**:
+   - 이전년도의 최종 등록자 평균 성적을 참고하면 안정적인 합격 가능성을 위해서는 표준 변환 점수 450점 이상이 필요할 것으로 보입니다.
+따라서, 법경찰행정학부에 정시로 들어갈려면 다음과 같은 점수를 목표로 해야 합니다:
+- **국어 + 수학 + 탐구(2개) 표준 변환 점수 합**: 450점 이상
+- **영어 등급**: 3.00 이상 (이전년도 평균)
+- **수능 4개 영역 (가산점 포함) 표준 변환 점수 합**: 450점 이상
+이러한 기준을 넘는 성적을 얻기 위해서는 수능 공부를 꾸준히 해야 합니다. 또한, 전형요소 반영 비율과 면접 등 다른 평가 요인도 고려해야 하므로, 전반적인 준비가 필요합니다.
+추가적으로, 동의대학교 입학관리 홈페이지를 통해 최신 정보와 지원 자격을 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="D280" t="n">
+        <v>0.4850389103867312</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B281" t="inlineStr">
+        <is>
+          <t>24학년도 모집단위에서 보육가정상담학과에서 아동학과로 변경되었습니다. 아동학과에 대해서 대답을 해드리겠습니다.
+	아동학과의 최종등록자 데이터를 기준으로 보면, 아동학과의 영어 등급 평균은 6.33이고, 수능 4개 영역 등급 평균은 7.08입니다. 
+	따라서, 현재 정시 등급이 5.33라면 아동학과의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다.
+	자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C281" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교 보육가정상담학과에 지원하시려면, 몇 가지 요소를 고려해야 합니다:
+1. **모집인원 및 경쟁률**: 보육가정상담학과는 아동학과로 분류되며, 모집 인원이 3명이고 경쟁률은 약 0.85입니다.
+2. **수능성적**: 수능 성적이 5.33으로, 이는 상당히 높은 등급입니다. 동의대학교에서는 수능 최저 기준이 없으므로, 이 수준의 성적만으로도 합격 가능성이 큽니다.
+3. **학생부교과성적**: 보육가정상담학과는 아동학과로 분류되며, 일반적으로 수능 위주 전형에서 합격 가능성이 높습니다. 이 경우, 5.33의 등급만으로도 충분히 합격할 수 있습니다.
+4. **지원 자격**: 지원 자격에 대한 추가 검증이 필요합니다. 예를 들어 거주지와 재학기간 등에 대한 증빙서류가 요구될 수 있습니다.
+결론적으로, 5.33의 수능성적만으로도 보육가정상담학과(아동학과)에 합격 가능성이 큽니다. 실제 선발 결과는 최종등록자 발표와 동일한 서류제출 여부 등을 고려해야 합니다.
+따라서, 5.33의 수능성적만으로도 보육가정상담학과(아동학과)에 합격 가능성이 큽니다.</t>
+        </is>
+      </c>
+      <c r="D281" t="n">
+        <v>0.1445892355083877</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B282" t="inlineStr">
+        <is>
+          <t>동의대학교의 충원 합격자 발표 및 등록 일정에 따르면, 충원 합격자 발표는 1차, 2차, 그리고 3차 이후로 나뉘어 진행됩니다. 3차 이후의 충원 합격자 발표는 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18:00까지 개별 전화 통보로 이루어집니다.
+예비 12번을 받으셨다면, 앞선 예비 번호를 받은 지원자들이 등록을 포기하거나 다른 대학에 등록하는 경우, 합격 가능성이 있습니다. 충원 합격은 지원자들의 등록 포기 여부에 따라 달라지므로, 정확한 예측은 어렵습니다. 하지만 예비 번호가 12번이라면, 충원 합격 가능성이 아예 없는 것은 아닙니다.
+충원 합격자 발표 기간 동안 전화 통보를 기다리시고, 다른 대학의 등록 상황도 주시하시기 바랍니다. 간절한 마음이 잘 전달되어 좋은 결과가 있기를 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C282" t="inlineStr">
+        <is>
+          <t>3차 충원합격자 발표에서는 최종적으로 합격 여부를 결정하기까지 여러 단계가 있습니다. 예비 12번으로 선정되었다는 것은 좋은 신호이지만, 확실한 합격을 보장하는 것은 아닙니다.
+주요 점수와 사항:
+1. **3차 충원합격자 발표**: 이 시점에서 합격 여부가 결정되지 않았습니다.
+2. **전화 연락 두절**: 3회 이상의 전화 통화 실패로 인해 합격 통보가 어려울 수 있습니다. 따라서, 합격을 확신하기 위해서는 반드시 전화를 받으셔야 합니다.
+3. **등록금 납부 기한**: 지정된 등록금 납부 기간 내에 등록하지 않으면 합격 취소될 수 있으므로, 이 점도 유의해야 합니다.
+추천 사항:
+1. **전화 확인**: 가능한 한 빨리 전화를 받아보세요. 대학 측과 직접 연락하여 합격 여부를 확인하십시오.
+2. **등록금 납부**: 등록금 납부 기한 내에 반드시 납부해야 합니다. 지연시 합격 취소될 수 있으므로 신중하게 처리하세요.
+결론적으로, 현재 상태에서는 확실한 합격은 아니지만, 최종 결정을 받기 전까지 계속 노력하고 확인하는 것이 중요합니다.</t>
+        </is>
+      </c>
+      <c r="D282" t="n">
+        <v>0.264463532924997</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B283" t="inlineStr">
+        <is>
+          <t>정시 성적 4.75로 지원 가능한 학과를 알아보겠습니다. 제공된 데이터에서 최종등록자의 수능 4개 영역 등급 평균을 기준으로 분석해보겠습니다.
+### 지원 가능 학과
+- **국어국문학과**: 4.92 (평균)
+- **중어중국학과**: 5.68 (평균)
+- **일본학과**: 4.87 (평균)
+- **영어영문학과**: 5.16 (평균)
+- **문헌정보학과**: 4.82 (평균)
+- **평생교육·청소년상담학과**: 5.22 (평균)
+- **아동학과**: 7.08 (평균)
+- **금융경영학과**: 5.41 (평균)
+- **재무부동산학과**: 5.82 (평균)
+- **무역학과**: 5.18 (평균)
+- **유통물류학과**: 5.45 (평균)
+- **회계학과**: 4.99 (평균)
+- **국제관광경영학과**: 5.41 (평균)
+- **호텔·컨벤션경영학과**: 6.12 (평균)
+- **외식경영학과**: 4.91 (평균)
+- **의료경영학과**: 5.92 (평균)
+- **식품영양학과**: 5.92 (평균)
+- **기계공학과, 로봇자동화공학과, 자동차공학과**: 6.30 (평균)
+- **조선해양공학과**: 6.16 (평균)
+- **신소재공학과, 고분자나노공학과**: 5.78 (평균)
+- **환경공학과, 화학공학과, 응용화학과**: 5.73 (평균)
+- **의생명공학과, 바이오의약공학과, 식품공학과**: 5.41 (평균)
+- **인간공학과, 제품디자인공학과**: 5.72 (평균)
+- **산업경영빅데이터공학과**: 5.27 (평균)
+- **인공지능학과**: 5.25 (평균)
+- **전기공학과, 전자공학과**: 5.37 (평균)
+- **게임공학과**: 4.78 (평균)
+- **영화학과**: 5.04 (평균)
+### 유아교육학과
+유아교육학과의 경우, 최종등록자의 수능 4개 영역 등급 평균이 4.18로 나타나 있습니다. 따라서, 4.75의 성적으로는 유아교육학과에 지원하기 어려울 것으로 보입니다.
+추가적인 정보나 문의사항이 있으시면 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C283" t="inlineStr">
+        <is>
+          <t>4.75라는 수능 점수는 상당히 높은 점수입니다. 하지만 유아교육학과에 입학하기 위해서는 단순히 수능 점수만이 중요한 것이 아닙니다. 다음과 같은 요소들을 고려해야 합니다:
+1. **모집인원 및 지원자 수**: 각 모집단위의 모집인원과 지원자의 수를 확인해야 합니다. 경쟁률이 높다면, 4.75라는 점수로도 충분히 합격할 수 있지만, 낮다면 더 높은 점수가 필요할 수도 있습니다.
+2. **전형요소 반영비율**: 유아교육학과의 경우, 학생부교과 전형일 가능성이 큽니다. 이 경우에는 수능 성적이 30%만 반영되므로, 나머지 70%는 학생부 교과성적 등 다른 요소들이 중요하게 작용합니다.
+3. **학생부 교과성적**: 유아교육학과에서는 국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학교과 중 석차등급 상위 12과목을 반영합니다. 이 점수들이 높다면 큰 도움이 될 것입니다.
+4. **면접 및 기타 요소**: 일부 전형에서는 면접이나 서류평가 등 다른 요소들도 중요하게 작용할 수 있습니다.
+따라서, 단순히 4.75라는 수능 점수만으로는 유아교육학과에 확실하게 합격하기 어렵다고 볼 수 있습니다. 하지만 수능 성적이 높고, 나머지 요소들도 충분히 준비되었다면 좋은 결과를 얻을 가능성은 있습니다.
+추가적으로, 정확한 입학 가능성을 확인하려면 해당 대학의 모집요강과 최종 등록자 정보 등을 참고하시거나, 입학처에 문의하시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="D283" t="n">
+        <v>0.1772778278022595</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B284" t="inlineStr">
+        <is>
+          <t>보육가정상담학과의 최종등록자 데이터를 기준으로 보면, 아동학과의 영어 등급 평균은 6.33이고, 수능 4개 영역 등급 평균은 7.08입니다. 
+따라서, 현재 정시 등급이 4.16라면 아동학과의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다. 즉, 추가합격까지 생각해서 합격할 가능성이 높습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C284" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교 정시 모집에 대한 정보를 바탕으로 답변 드리겠습니다.
+보육가정상담학과는 인문사회과학대학 소속이며, 일반학생전형을 통해 모집됩니다. 보육가정상담학과의 경우 수능 반영방법은 다음과 같습니다:
+- 국어(화법과작문 또는 언어와매체) 25%
+- 수학(확률과통계 또는 미적분 또는 기하) 25%
+- 영어 25%
+- 탐구(사회탐구 또는 과학탐구 또는 직업탐구 - 2개 과목 합) 25%
+수능 성적 환산 등급이 4.16인 경우, 이는 상당히 높은 점수입니다. 그러나 정확한 합격 가능성 판단을 위해서는 다음과 같은 요소들을 고려해야 합니다:
+1. **최종 모집 인원과 지원자 수**: 각 모집단위별로 최종 모집 인원이 얼마나 되는지, 그리고 실제 지원자가 몇 명인지 확인해야 합니다.
+2. **경쟁률**: 현재의 경쟁률을 파악하여 4.16 등급이 어느 정도 위치하는지를 알아보세요.
+3. **최종 합격자 발표 결과**: 이전 년도의 최종 합격자들의 수능 성적과 비교해 보는 것이 도움이 됩니다.
+4. **면접 및 서류평가**: 일부 전형에서는 면접이나 서류 평가 등 추가 절차가 있으므로, 해당 요소들도 고려해야 합니다.
+현재 정보만으로 판단하면 4.16 환산등급은 상당히 높은 수준이므로 합격 가능성은 매우 높다고 볼 수 있습니다. 그러나 정확한 확률을 알기 위해서는 위의 요소들을 추가로 확인해야 합니다.
+추가적으로, 동의대학교 입학 홈페이지나 총학생회 등에서 최신 정보를 확인하시거나, 대학 관계자에게 직접 문의하시는 것이 가장 정확한 답변을 얻는 방법입니다.</t>
+        </is>
+      </c>
+      <c r="D284" t="n">
+        <v>0.03877377087750381</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B285" t="inlineStr">
+        <is>
+          <t>아니요. 소프트웨어융합학과는 정시로 지원할 수 없습니다.</t>
+        </is>
+      </c>
+      <c r="C285" t="inlineStr">
+        <is>
+          <t>2024학년도 경기대학교의 정시모집에서 소프트웨어융합학과는 다음과 같은 전형방법으로 모집됩니다:
+- **전형 방법**: 
+  - 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합
+  - 영어 등급
+  - 수능 4개 영역 등급
+- **정원 및 지원자 수**:
+  - 정원: 7
+  - 지원자 수: 95명
+  - 경쟁률: 약 13.33대 1 (95/7)
+- **성적 평균 및 분산**: 
+  - 국어 + 수학 + 탐구(2개) 표준 변환 점수 합 평균: 330.11
+  - 영어 등급 평균: 3.30
+  - 수능 4개 영역 등급 평균: 4.17
+- **가장 중요한 성적 요소**:
+  - 국어 + 수학 + 탐구(2개) 표준 변환 점수 합이 가장 중요합니다.
+  - 이 부분의 평균은 약 330점으로, 지원자들 사이에 큰 차이가 있습니다.
+- **추정 등급**:
+  - 국어 + 수학 + 탐구(2개) 표준 변환 점수 합을 높이는 것이 중요합니다. 이 부분에서 평균은 약 330점으로, 경쟁률이 높아서는 최소 340-350점 이상을 받는 것이 안전할 수 있습니다.
+  - 영어 등급도 중요하므로 최소 3등급 이상을 받는 것을 추천합니다.
+따라서 소프트웨어융합학과를 정시로 들어가려면 다음과 같은 성적을 갖추어야 합니다:
+1. **국어 + 수학 + 탐구(2개) 표준 변환 점수 합**: 340-350점 이상
+2. **영어 등급**: 최소 3등급 이상
+이러한 성적이면 경쟁력을 갖추게 될 것입니다. 그러나 정시모집은 여전히 높은 경쟁률을 고려해야 하므로, 추가적인 준비와 노력이 필요할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="D285" t="n">
+        <v>2.88626715284304e-11</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B286" t="inlineStr">
+        <is>
+          <t>소프트웨어융합학과는 서류 평가(공동체 역량, 학업 역량, 전공 적합성)과 면접 고사(400점 만점), 
+	학생부 교과성적을 합쳐서 평가합니다. 
+	준비해야하는 서류와 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C286" t="inlineStr">
+        <is>
+          <t>1. 면접 점수와 세특(서류평가)의 비중:
+   - 소프테웨어융합학과의 전형요소 반영비율은 다음과 같습니다.
+     { 서류 / 면접 } = { 60% / 40% }
+   - 이는 서류 평가가 면접 평가보다 약간 더 큰 비중을 차지한다는 것을 의미합니다.
+2. 준비해야 하는 추가 서류:
+   - 제출서류는 표에서 나열된 내용과 같습니다.
+     고교 졸업(예정)자 / 1. 고교 학교생활기록부 1부 (학생부 온라인 제공 동의자는 제출할 필요 없음)
+     교육기관, 공공기관, 무인민원발급기, 인터넷 정부24에서 발급 가능
+   - 추가적으로 면접 준비를 위해 지원동기와 학업계획, 학업역량, 전공적합성 등에 대한 세부적인 사례와 경험을 준비하는 것이 중요합니다.
+따라서, 서류 평가의 비중이 더 크므로 세특 내용을 충분히 준비하고 면접에서는 그 내용을 자연스럽게 연결시켜야 합니다.</t>
+        </is>
+      </c>
+      <c r="D286" t="n">
+        <v>0.04812720987474785</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B287" t="inlineStr">
+        <is>
+          <t>동의대학교 소프트웨어공학부의 2024학년도 수능(일반학생전형) 최초합격자의 수능 4개 영역 등급 평균은 4.12입니다. 따라서, 4.08의 성적은 최초합격자의 평균 등급보다 약간 높은 수준입니다. 
+	최초합격자의 평균 등급과 비교적 근접한 성적이므로, 최초합격 가능성은 있지만 확실하지는 않습니다. 추가적인 요소나 경쟁률에 따라 결과가 달라질 수 있습니다. 
+	정확한 정보는 동의대학교 입학처에 문의하는 것이 좋습니다. 추가적인 문의는 "https://ipsi.deu.ac.kr/main.do"에서 확인할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="C287" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 소프트웨어공학부의 최초합격자 표를 확인해보겠습니다.
+- **소프트웨어공학부** 모집단위의 **최초합격자** 수능 성적을 보니:
+  - **수능 영역별 성적**: 국어(표준점수), 수학(미적분 또는 기하) 응시자, 영어(등급에 따른 점수)영역의 합계점수 상위자 순으로 처리됩니다.
+- **소프트웨어공학부** 최초합격자의 수능 성적을 확인해보겠습니다.
+  - **최초합격자 발표 및 등록금 납부**: 2024. 02. 02.(금) 14:00
+  - **수능성적 반영방법**: '38페이지 Ⅴ. 수능성적 반영방법' 참조
+- **동의대학교 소프트웨어공학부** 최초합격자의 수능 성적을 확인해보겠습니다.
+  - **최고 학점자**: 수능 국어(표준점수), 수학(표준점수), 영어(등급에 따른 점수)영역의 합계점수 상위자
+  - **2등위자**: 인문사회과학대학, 상경대학 모집단위 수능 국어영역 표준점수 상위자
+  - **3등위자**: 의료‧보건‧생활대학, 공과대학 ICT융합공과대학 모집단위 수능 수학(미적분 또는 기하) 응시자
+- **4.08**의 성적이 동의대학교 소프트웨어공학부 최초합격자의 수능 성적을 충족할 가능성이 있습니다.
+따라서, 정시 성적이 4.08인 경우 동의대학교 소프트웨어공학부 최초합격자로 가능한 것으로 보입니다. 하지만 최종 합격 여부는 전형일정과 절차에 따라 결정되므로, 해당 일정을 참고하여 최종 확인이 필요합니다.
+추가적으로, 수능성적 반영방법은 '38페이지 Ⅴ. 수능성적 반영방법' 참조해야 합니다.</t>
+        </is>
+      </c>
+      <c r="D287" t="n">
+        <v>0.08322733656845885</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B288" t="inlineStr">
+        <is>
+          <t>소프트웨어융합학과의 정시 모집에 대한 구체적인 합격 등급 정보는 제공된 Context에 포함되어 있지 않습니다. 소프트웨어융합학과는 나군 학생부종합(조기취업형계약학과전형)으로도 모집하며, 이 경우 서류 60%와 면접 40%의 비율로 전형요소를 반영합니다.
+정확한 합격 가능성을 확인하기 위해서는 해당 학과의 최근 합격자 평균 등급이나 입시 결과를 참고해야 합니다. 이러한 정보는 대학의 입학처 홈페이지나 모집요강에서 확인할 수 있습니다. 추가적인 정보가 필요하다면 "https://ipsi.deu.ac.kr/main.do"를 방문하여 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C288" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 정시모집에서 소프트웨어융합학과는 &lt;나&gt;군 실기/실적 위주 전형에 해당합니다. 이 전형의 경우 수능 성적이 반영되지 않으며, 주로 실기 및 실적 평가가 이루어지므로 5등급의 수능 점수만으로는 합격이 어려울 것으로 예상됩니다.
+소프트웨어융합학과의 모집요강을 확인하시고, 해당 전형에서 요구하는 실기/실적 기준을 충족시키는 것이 중요합니다. 구체적인 동점자 처리 기준이나 기타 평가 요인도 고려해야 합니다.
+만약 자세한 정보가 필요하다면, 동의대학교 입학처 웹사이트나 전화로 문의하시는 것을 추천드립니다.</t>
+        </is>
+      </c>
+      <c r="D288" t="n">
+        <v>0.3941533174173001</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B289" t="inlineStr">
+        <is>
+          <t>정확한 답변을 위해서는 더 많은 정보가 필요하지만, 제공된 데이터를 바탕으로 대략적인 판단을 할 수 있습니다.
+### 신소재공학과, 분자나노공학과 (공과대학) - 2024학년도
+- **최초합격자 평균 수능 4개 영역 등급**: 5.32
+- **최종등록자 평균 수능 4개 영역 등급**: 5.78
+### 귀하의 성적
+- **수능 4개 영역 등급**: 4.28
+귀하의 성적이 신소재공학과의 최초합격자와 최종등록자의 평균 등급보다 높습니다. 따라서, 동의대학교 신소재공학과에 합격할 가능성이 높다고 판단됩니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C289" t="inlineStr">
+        <is>
+          <t>4.28이라는 성적을 가지고 동의대학교 신소재공학과에 지원하는 것은 가능하지만, 확실한 합격 여부는 여러 요인에 따라 달라질 수 있습니다.
+1. **전형 유형**: 신소재공학과는 전형요소 반영비율이 실기/실적 위주로 되어 있으며, 수능 성적이 30%만 반영됩니다. 따라서 수능 성적이 좋은 경우에도 합격 가능성은 높아집니다.
+2. **수능 성적**: 신소재공학과는 수능 성적이 30%를 반영합니다. 4.28이라는 성적을 가지고 지원하면, 수능 부분에서 좋은 점수를 받았다는 것은 긍정적인 요인입니다.
+3. **실적/수능 비율**: 실적(가산점 포함)이 70%를 반영하기 때문에, 실적 성적이 중요한 요소입니다. 4.28이라는 수능 성적을 가지고 지원하면, 수능 부분에서 좋은 점수를 받았다는 것은 긍정적인 요인입니다.
+4. **경쟁률**: 신소재공학과는 모집 인원이 많고 지원 인원도 많은 편입니다. 따라서 경쟁률이 높아지면 합격 가능성은 낮아질 수 있습니다.
+결론적으로, 4.28이라는 성적을 가지고 동의대학교 신소재공학부에 지원하는 것은 가능하지만, 확실한 합격 여부는 여러 요인에 따라 달라질 수 있습니다. 실적 성적과 함께 전형요소를 잘 준비하고 지원하면 더 높은 합격 가능성이 있을 것입니다.
+추가적으로, 동의대학교 신소재공학과는 경쟁률이 높아지면 합격 가능성도 낮아질 수 있으므로, 실적 성적을 잘 준비하는 것이 중요합니다.</t>
+        </is>
+      </c>
+      <c r="D289" t="n">
+        <v>0.1350983656146549</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B290" t="inlineStr">
+        <is>
+          <t>아니요. 수능 일반학생전형은 자기소개서가 필요없습니다.</t>
+        </is>
+      </c>
+      <c r="C290" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교 수능 일반학생전형에서는 자기소개서가 필수적으로 요구되는 것은 아닙니다. 지원자는 주로 학생부, 수능 점수, 탐구 과목 등에 초점을 맞추어 서류를 준비하면 됩니다.
+하지만, 일부 모집단위나 전형에서 자기소개서가 필요할 수도 있으므로, 정확한 요구사항을 확인하기 위해서는 해당 모집단위의 공식 홈페이지나 입학처 웹사이트를 참조하거나 직접 문의하는 것이 좋습니다. 특히 나군(실기/실적)이나 일부 특별전형에서는 자기소개서가 필요할 수 있으니 주의해야 합니다.
+일반적으로 필요한 서류는 다음과 같습니다:
+1. 학생부 (온라인 제공 동의자 제외)
+2. 수능 성적증명서
+3. 탐구 과목 성적증명서
+자기소개서가 필요하다면, 지원자의 인성, 학업계획, 전공 적합성 등을 잘 담아 작성하는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="D290" t="n">
+        <v>4.248310365033394e-06</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B291" t="inlineStr">
+        <is>
+          <t>동의대학교의 수능 정시 모집에서 합격 가능성을 평가하기 위해서는 각 학과의 평균 등급과 표준 편차를 참고하는 것이 중요합니다. 제공된 데이터에 따르면, 각 학과의 수능 4개 영역 등급 평균과 표준 편차가 나와 있습니다. 
+예를 들어, 인문사회과학대학의 국어국문학과의 경우, 최초 합격자의 수능 4개 영역 등급 평균은 4.65이고, 최종 등록자의 경우 4.92입니다. 
+따라서, 수능 4개 영역 등급이 4.5라면, 일부 학과에서는 합격 가능성이 있을 수 있습니다. 그러나, 각 학과마다 요구하는 등급이 다르므로, 지원하고자 하는 학과의 평균 등급과 비교해보는 것이 중요합니다.
+추가 모집의 경우, 경쟁률이 낮아질 수 있으므로 합격 가능성이 높아질 수 있습니다. 하지만, 추가 모집에 대한 정보는 학교의 공식 홈페이지나 입학처에 문의하는 것이 가장 정확합니다.
+자세한 사항은 동의대학교 입학처에 문의하시기 바랍니다. 추가 정보는 "https://ipsi.deu.ac.kr/main.do"에서 확인할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="C291" t="inlineStr">
+        <is>
+          <t>4.5라는 점수만으로는 확실한 답변을 드리기 어렵습니다. 하지만 다음과 같은 요소들을 고려해볼 수 있습니다:
+1. 모집인원과 지원자 수: 추가모집 시 모집인원이 얼마나 늘었는지, 그리고 지원자가 몇 명인지 확인해야 합니다.
+2. 경쟁률: 현재의 경쟁률을 파악하고, 추가모집으로 인한 경쟁률 변화를 예측해볼 수 있습니다.
+3. 최저합격선: 추가모집 시 최저합격선이 어떻게 결정되는지 확인해야 합니다.
+4. 전형별 특성: 정시와 추가모집 간의 특성이 다르다면, 4.5라는 점수로는 추가모집에 더 들어갈 가능성이 높아질 수 있습니다.
+5. 학과 별 특성: 지원하고자 하는 특정 학과에서의 특성을 고려해야 합니다.
+확실한 답변을 드리기 위해서는 동의대학교 입학 홈페이지나 공지사항 등을 확인해보시고, 추가모집에 대한 자세한 정보를 얻으시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="D291" t="n">
+        <v>0.3584400082797151</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B292" t="inlineStr">
+        <is>
+          <t>신소재학과의 최종등록자 데이터를 기준으로 보면, 신소재공학과의 영어 등급 평균은 5.06이고, 수능 4개 영역 등급 평균은 5.78입니다. 
+따라서, 신소재공학과의 평균 등급보다 높은 성적을 가지고 있으시면 합격 가능성이 올라갑니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C292" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교에서 신소재공학과는 다군 수능(일반학생전형) 모집단위에 속합니다.
+다군 수능(일반학생전형)의 경우, 전형요소 반영비율은 다음과 같습니다:
+- 국어: 25%
+- 수학: 25%
+- 영어: 25%
+- 탐구: 25%
+수능 최저기준은 없습니다.
+신소재공학과는 신소재공학과, 고분자나노공학과로 구성되어 있습니다. 이 중 신소재공학과와 고분자나노공학과 모두 다군 수능(일반학생전형) 모집단위에 속합니다.
+따라서 신소재공학부 전체를 대상으로 보면, 각 과별로 다르게 반영될 수 있지만, 일반적으로 동의대학교의 경우 다음과 같은 경향이 있습니다:
+- 국어: 3등급 이상
+- 수학: 4등급 이상 (특히 고등과목 중 미적분은 5등급 이상)
+- 영어: 6등급 이상
+- 탐구: 선택 과목 중 석차 등급 상위 과목 2개
+이러한 경향을 감안하면, 신소재공학부 전체를 대상으로 보면 3등급 이상의 국어와 수학, 영어 6등급 이상, 탐구 과목 중 석차 등급 상위 4과목 정도는 필요할 것으로 보입니다.
+하지만 정확한 최저 기준은 공시되지 않았으며, 각 과별로 다르게 반영될 수도 있으므로, 최종 합격 가능성을 확인하려면 동의대학교 입학관리팀에 문의하거나, 해당 년도의 수능 성적 변동을 고려해야 합니다.</t>
+        </is>
+      </c>
+      <c r="D292" t="n">
+        <v>0.03112595972002143</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B293" t="inlineStr">
+        <is>
+          <t>작년 동의대학교 신소재공학과의 최종 등록자 평균 표준 변환 점수는 378.15점이었습니다. 따라서, 귀하의 표준점수 447점은 작년 신소재공학과의 평균 점수보다 훨씬 높습니다. 이 점수라면 신소재공학과에 합격할 가능성이 매우 높다고 할 수 있습니다. 
+추가적인 정보나 문의사항이 있으시면 "https://ipsi.deu.ac.kr/main.do"를 방문해 주시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C293" t="inlineStr">
+        <is>
+          <t>2023년 동의대학교 정시 모집에서 신소재공학과의 최종 평균 점수가 작년에 비해 약간 높아진 경우는 가능합니다. 하지만 이는 여러 요인에 따라 달라질 수 있습니다:
+1. **모집 인원 변화**: 작년보다 모집 인원이 늘어난다면, 평균 점수는 상대적으로 낮아질 수 있습니다.
+2. **지원자 성적 분포**: 지원자의 성적이 작년에 비해 더 높아진다면, 평균 점수가 올라갈 가능성이 있습니다.
+3. **전형별 차이**: 다른 전형(예: 일반학생전형, 실기/실적전형 등)의 성적이 변동되면 전체 평균에도 영향을 줄 수 있습니다.
+4. **교과 과목 선택**: 작년에 비해 일부 지원자가 특정 교과 과목을 더 잘 응시했을 수도 있습니다.
+5. **학기 중 성적 변화**: 일부 대학은 학기 중 성적이 반영될 수 있으므로, 이로 인한 점수 변동이 있을 수 있습니다.
+6. **입학사정관 평가 영향**: 입학사정관 평가 등 비수능 요소의 중요성이 높아진다면, 이도 평균 점수에 영향을 줄 수 있습니다.
+따라서 447점으로 환산된 표준점수가 작년보다 약간 낮은 경우에도 최종 평균 점수가 작년보다 높아질 가능성이 있지만, 확실한 것은 아닙니다. 정확한 정보를 얻기 위해서는 동의대학교 입학처나 공식 홈페이지에서 최신 데이터를 확인하는 것이 가장 좋습니다.</t>
+        </is>
+      </c>
+      <c r="D293" t="n">
+        <v>0.04777175280879149</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B294" t="inlineStr">
+        <is>
+          <t>동의대학교 신소재공학부(일반학생전형)의 최종등록자 데이터를 바탕으로 판단해보겠습니다.
+	신소재공학부의 최종등록자 평균 성적은 다음과 같습니다:
+	- 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합: 평균 271.64, 표준 편차 19.52
+	- 영어 등급: 평균 5.06, 표준 편차 1.22
+	- 수능 4개 영역 등급: 평균 5.78, 표준 편차 0.49
+	- 수능 4개 영역 (가산점 포함) 표준 변환 점수 합: 평균 378.15, 표준 편차 21.81
+	귀하의 성적이 4.1~4.2등급대라면, 신소재공학부의 최종등록자 평균 성적과 비교했을 때 다소 높은 편입니다. 특히, 영어 등급과 수능 4개 영역 등급에서 차이가 있을 수 있습니다.
+	따라서, 귀하의 성적이 신소재공학부의 최종등록자 평균 성적과 비교했을 때 다소 높으므로, 합격 가능성은 높습니다. 그러나, 최종 합격 여부는 지원자 전체의 성적 분포와 경쟁률에 따라 달라질 수 있습니다.
+	더 자세한 정보나 상담이 필요하다면, 동의대학교 입학처에 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C294" t="inlineStr">
+        <is>
+          <t>4.3등급의 성적이면 신소재공학과(신소재공학과, 고분자나노공학과)의 경우 경쟁률이 매우 높은 편입니다. 현재 모집단위별로 지원자의 수와 모집인원이 제한되어 있어 4.1~4.2등급으로는 낮은 확률로 합격할 가능성이 있습니다.
+신소재공학과의 경우 다음과 같은 특징들이 있습니다:
+1. **경쟁률**: 매우 높습니다.
+2. **모집인원**: 제한적입니다.
+3. **성적요건**: 국어, 수학, 영어 등 주요 과목에서 높은 점수를 요구합니다.
+따라서 4.1~4.2등급으로는 낮은 확률로 합격할 수 있습니다. 하지만 다음과 같은 방법들을 고려해볼 수도 있습니다:
+1. **추천서 작성**: 강사나 선생님의 추천서를 잘 준비하여 지원합니다.
+2. **면접 준비**: 면접에서도 좋은 성적을 받기 위해 충분히 준비합니다.
+3. **추가 과목 수강**: 필요한 과목에서 추가로 공부하여 점수를 높입니다.
+결국, 확실한 합격은 어렵지만, 최선을 다해 지원하는 것이 중요합니다. 또한 다른 대학이나 전형도 고려해보는 것도 좋은 방법일 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="D294" t="n">
+        <v>0.3056689676746973</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B295" t="inlineStr">
+        <is>
+          <t>동의대학교 인공지능학과의 수능 일반학생전형 최초합격자 성적은 다음과 같습니다:
+- **모집 인원**: 15명
+- **지원 인원**: 24명
+- **경쟁률**: 1.60
+- **충원 합격 (후보순위)**: 5명
+- **국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합**: 평균 301.87, 표준 편차 12.38
+- **영어 등급**: 평균 4.13, 표준 편차 0.71
+- **수능 4개 영역 등급**: 평균 4.98, 표준 편차 0.25
+- **수능 4개 영역 (가산점 포함) 표준 변환 점수 합**: 평균 415.80, 표준 편차 10.49
+이 성적을 참고하여 준비하시기 바랍니다. 추가적인 정보가 필요하면 "https://ipsi.deu.ac.kr/main.do"를 방문해 주세요.</t>
+        </is>
+      </c>
+      <c r="C295" t="inlineStr">
+        <is>
+          <t>2024년 동국대학교 인공지능학과 수능 일반학생전형에 대한 모집인원 및 전형요소 반영비율은 다음과 같습니다:
+- **모집인원**: 15명 (정확한 숫자는 표에서 확인해보세요)
+- **전형요소 반영비율**:
+  - 수능: 100%
+수능 성적 산출 방법은 다음과 같습니다:
+- 국어(화법과작문 또는 언어와매체) 25% + 
+- 수학(확률과통계 또는 미적분 또는 기하) 25% + 
+- 영어 25% +
+- 탐구(사회탐구 또는 과학탐구 - 2개 과목 합) 25%
+수능 성적은 표준점수와 등급에 따른 점수를 반영합니다.
+최종 합격을 위해서는 최저합격선 이상의 성적이 필요하며, 동점자 처리 기준도 고려해야 합니다. 
+정확한 최저합격선과 동점자 처리기준은 입학처 홈페이지나 공식 안내서에서 확인해보시는 것이 좋습니다. 또한, 수능 성적뿐만 아니라 전형요소 전체를 종합적으로 평가받으므로, 모든 요소를 잘 준비하는 것이 중요합니다.</t>
+        </is>
+      </c>
+      <c r="D295" t="n">
+        <v>0.2941333849184213</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B296" t="inlineStr">
+        <is>
+          <t>동의대학교의 정시 성적을 기준으로 5.27의 성적으로 충원 합격(추합)이 가능한지 확인하기 위해서는 각 학과의 최종 등록자 성적을 비교해보아야 합니다. 아래는 각 학과의 수능 4개 영역 등급 평균과 표준 편차를 기준으로 5.27 성적이 충원 합격 가능한지 확인한 결과입니다:
+1. **인문사회과학대학**
+   - 국어국문학과: 평균 4.92, 표준 편차 0.35
+   - 중어중국학과: 평균 5.68, 표준 편차 0.74
+   - 일본학과: 평균 4.87, 표준 편차 0.13
+   - 영어영문학과: 평균 5.16, 표준 편차 0.66
+   - 문헌정보학과: 평균 4.82, 표준 편차 0.33
+   - 평생교육·청소년상담학과: 평균 5.22, 표준 편차 0.29
+   - 아동학과: 평균 7.08, 표준 편차 0.56
+   - 유아교육과: 평균 4.18, 표준 편차 0.25
+   - 광고홍보학과: 평균 4.47, 표준 편차 0.18
+   - 미디어커뮤니케이션학과: 평균 4.29, 표준 편차 0.23
+   - 법학과: 평균 4.27, 표준 편차 0.27
+   - 경찰행정학과: 평균 4.12, 표준 편차 0.18
+   - 소방방재행정학과: 평균 4.43, 표준 편차 0.40
+   - 행정학과: 평균 4.36, 표준 편차 0.33
+   - 사회복지학과: 평균 4.69, 표준 편차 0.23
+2. **상경대학**
+   - 금융경영학과: 평균 5.41, 표준 편차 0.52
+   - 재무부동산학과: 평균 5.82, 표준 편차 1.25
+   - 무역학과: 평균 5.18, 표준 편차 0.50
+   - 유통물류학과: 평균 5.45, 표준 편차 0.52
+   - 경영학과: 평균 4.69, 표준 편차 0.22
+   - 회계학과: 평균 4.99, 표준 편차 0.41
+   - 경영정보학과: 평균 4.31, 표준 편차 0.23
+   - e비즈니스학과: 평균 4.53, 표준 편차 0.36
+   - 국제관광경영학과: 평균 5.41, 표준 편차 0.56
+   - 호텔·컨벤션경영학과: 평균 6.12, 표준 편차 0.77
+   - 외식경영학과: 평균 4.91, 표준 편차 0.28
+3. **의료보건생활대학**
+   - 간호학과: 평균 3.37, 표준 편차 0.29
+   - 임상병리학과: 평균 4.15, 표준 편차 0.12
+   - 치위생학과: 평균 4.18, 표준 편차 0.20
+   - 방사선학과: 평균 3.82, 표준 편차 0.20
+   - 의료경영학과: 평균 5.92, 표준 편차 1.08
+   - 물리치료학과: 평균 3.62, 표준 편차 0.15
+   - 식품영양학과: 평균 5.92, 표준 편차 1.06
+4. **한의과대학**
+   - 한의예과(수학&lt;미적분/기하&gt;): 평균 1.21, 표준 편차 0.09
+   - 한의예과(수학&lt;확률과통계&gt;): 평균 1.20, 표준 편차 0.05
+5. **공과대학**
+   - 기계공학과, 로봇자동화공학과, 자동차공학과: 평균 6.30, 표준 편차 1.1
+   - 조선해양공학과: 평균 6.16, 표준 편차 1.00
+   - 신소재공학과, 분자나노공학과: 평균 5.78, 표준 편차 0.49
+   - 건축학과(5년제), 건축공학과, 토목공학과, 도시공학과: 평균 4.69, 표준 편차 0.25
+   - 환경공학과, 화학공학과, 응용화학과: 평균 5.73, 표준 편차 0.57
+   - 의생명공학과, 바이오의약공학과, 식품공학과: 평균 5.41, 표준 편차 0.65
+   - 인간공학과, 제품디자인공학과: 평균 5.72, 표준 편차 0.73
+   - 산업경영빅데이터공학과: 평균 5.27, 표준 편차 0.43
+6. **ICT융합공과대학**
+   - 컴퓨터공학과: 평균 4.29, 표준 편차 0.16
+   - 소프트웨어공학부: 평균 4.49, 표준 편차 0.30
+   - 인공지능학과: 평균 5.25, 표준 편차 0.35
+   - 전기공학과, 전자공학과: 평균 5.37, 표준 편차 0.60
+   - 디지털콘텐츠학과: 평균 4.47, 표준 편차 0.24
+   - 게임공학과: 평균 4.78, 표준 편차 0.20
+   - 영화학과: 평균 5.04, 표준 편차 0.76
+7. **예술디자인체육대학**
+   - 패션디자인학과: 평균 4.46, 표준 편차 0.31
+위의 정보를 바탕으로, 5.27의 성적으로 충원 합격이 가능한 학과는 다음과 같습니다:
+- 인문사회과학대학: 중어중국학과, 영어영문학과, 평생교육·청소년상담학과, 아동학과
+- 상경대학: 금융경영학과, 재무부동산학과, 무역학과, 유통물류학과, 호텔·컨벤션경영학과, 외식경영학과
+- 의료보건생활대학: 의료경영학과, 식품영양학과
+- 공과대학: 기계공학과, 로봇자동화공학과, 자동차공학과, 조선해양공학과, 신소재공학과, 분자나노공학과, 환경공학과, 화학공학과, 응용화학과, 의생명공학과, 바이오의약공학과, 식품공학과, 인간공학과, 제품디자인공학과, 산업경영빅데이터공학과
+- ICT융합공과대학: 인공지능학과, 전기공학과, 전자공학과, 영화학과
+위 학과들은 5.27의 성적으로 충원 합격이 가능할 것으로 보입니다. 더 자세한 정보는 동의대학교 입학처에 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C296" t="inlineStr">
+        <is>
+          <t>5.27이라는 수능 등급을 가지고 동의대학교 정시 모집에 지원 가능할지는 여러 요인에 따라 다릅니다.
+1. **모집군과 모집단위**: 동의대학교는 다양한 모집군과 모집단위를 가지고 있으며, 각각의 수능 최저기준이 다르므로, 어떤 모집군과 모집단위를 지원하느냐에 따라 가능성이 달라질 수 있습니다.
+2. **수능 최저기준**: 동의대학교의 정시모집에서는 대부분의 모집단위에서 수능 최저기준을 요구합니다. 예를 들어, 일부 학과는 4등급 이상을 요구할 수 있으며, 다른 학과는 더 높은 등급을 필요로 할 수도 있습니다.
+3. **전형 유형**: 각 전형 유형(수능 위주, 실기/실적 위주, 학생부교과 위주 등)에 따라 수능 최저기준이 달라질 수 있습니다.
+4. **모집단위 별 특성**: 일부 모집단위는 특정 분야의 전문성을 요구하기 때문에, 해당 분야와 관련된 수능 과목 성적이 중요할 수 있습니다.
+따라서, 정확한 답변을 드리기 위해서는 다음과 같은 정보가 필요합니다:
+- 지원하고자 하는 모집군과 모집단위
+- 해당 모집단위의 수능 최저기준
+- 지원하는 전형 유형
+이런 정보를 바탕으로 더 구체적인 판단을 내릴 수 있습니다. 만약 특정 모집단위에 대한 자세한 정보가 필요하다면, 동의대학교 입학 홈페이지나 학교 관계자에게 문의하시는 것이 좋습니다.
+추천: 동의대학교 입학 홈페이지(https://ipsi.deu.ac.kr/main.do)를 방문하여 각 모집단위의 수능 최저기준을 확인하시거나, 직접 입학처에 문의해보시는 것을 권장드립니다.</t>
+        </is>
+      </c>
+      <c r="D296" t="n">
+        <v>0.0896858784472034</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B297" t="inlineStr">
+        <is>
+          <t>소프트웨어공학부의 최종등록자 데이터를 기준으로 보면, 소프트웨어공학부의 영어 등급 평균은 3.77이고, 수능 4개 영역 등급 평균은 4.49입니다. 
+따라서, 현재 정시 등급이 4.2라면 소프트웨어공학부의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C297" t="inlineStr">
+        <is>
+          <t>4.2라는 점수는 수능 등급으로 보이는데, 동의대학교 소프트웨어공학부에 대한 자세한 정보가 필요합니다.
+1. **전형 요소 반영 비율 확인**: 소프트웨어공학부의 전형요소 반영비율을 먼저 확인해야 합니다. 예를 들어, 학생부교과가 70%, 서류가 30%라면, 좋은 학생부와 서류 준비가 필요합니다.
+2. **수능 등급 평균**: 동의대학교 소프트웨어공학부의 수능 등급 평균을 확인해야 합니다. 예를 들어, 평균이 4.5 이상이라면, 4.2는 약간 낮은 점수입니다.
+3. **경쟁률**: 경쟁률도 중요합니다. 경쟁률이 높다면, 좋은 학생부와 서류가 필요합니다.
+4. **개인 준비**: 개인의 준비도 중요합니다. 좋은 학생부와 서류를 준비한다면, 4.2 등급으로도 합격 가능성은 있습니다.
+결론적으로, 4.2 등급으로는 약간 낮은 점수일 수 있지만, 좋은 학생부와 서류가 준비된다면 합격 가능성이 있습니다. 자세한 정보를 동의대학교에 문의하거나, 전형요소 반영 비율을 확인하는 것이 도움이 될 것입니다.</t>
+        </is>
+      </c>
+      <c r="D297" t="n">
+        <v>0.1039519163377508</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B298" t="inlineStr">
+        <is>
+          <t>화학환경공학부의 최종등록자 데이터를 기준으로 보면, 화학환경공학부의 영어 등급 평균은 4.82이고, 수능 4개 영역 등급 평균은 5.73입니다. 
+따라서, 현재 정시 등급이 3.92라면 화학환경공학부의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다. 즉, 추가합격까지 생각해서 합격할 가능성이 높습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C298" t="inlineStr">
+        <is>
+          <t>为了判断是否符合化学环境工程学部的一般学生招生条件，我们需要查看几个关键信息：
+1. **科目和成绩要求**：
+   - 国语 (Korean Language): 25%
+   - 数学 (Mathematics): 25%
+   - 英语 (English): 25%
+   - 理科或科学 (Science or Science Education): 25%
+2. **加权成绩计算方法**：
+   - 总分为国语、数学、英语和理科/科学（两个科目）的标准化分数之和。
+3. **具体要求**：
+   - 化学环境工程学部的一般学生招生通常会有一个最低分数线，这个分数线是根据当年考生的成绩来设定的。
+4. **给定成绩**：
+   - { 104 / 108 / 4等级 / 47 / 59 / } 
+假设这些分数对应的是国语、数学（微积分或几何）、英语和理科/科学中的一个科目，我们可以计算总分：
+- 国语：104
+- 数学（微积分）：108
+- 英语：根据等第换算成分数。4等相当于115分。
+- 理科/科学：假设是59
+总分为：
+\[ 104 + 108 + 115 + 59 = 386 \]
+如果这个总分对应的标准化成绩为3.92，那么我们需要知道化学环境工程学部的一般学生招生的最低分数线是多少。
+通常情况下，各大学会根据当年考生的成绩分布来设定最低分数线。如果没有具体的最低分数线信息，我们无法直接判断是否符合要求。
+建议：
+1. 查看东国大学官网发布的具体招生简章和往年录取分数线。
+2. 如果有疑问，可以直接联系学校招生办公室进行咨询确认。
+综上所述，在没有具体最低分数线的情况下，仅凭给定的成绩3.92无法确定是否能被化学环境工程学部的一般学生专业录取。需要进一步查看具体的招生要求或直接向学校咨询。</t>
+        </is>
+      </c>
+      <c r="D298" t="n">
+        <v>0.007568259958604836</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B299" t="inlineStr">
+        <is>
+          <t>동의대학교 화학환경공학부의 수능 일반학생전형 최초합격자 데이터를 바탕으로 판단해보겠습니다.
+- 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합 평균: 276.61
+- 영어 등급 평균: 4.70
+- 수능 4개 영역 등급 평균: 5.59
+- 수능 4개 영역 (가산점 포함) 표준 변환 점수 합 평균: 385.99
+귀하의 성적 4.25는 최초합격자의 평균값보다 높으므로 합격 가능성이 높은 것으로 판단됩니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C299" t="inlineStr">
+        <is>
+          <t>4.25라는 점수는 전형별로 다르게 적용될 수 있으므로, 화학환경공학부에서 수능 일반학생전형으로 지원 가능한지 확인해야 합니다.
+1. **수능 반영방법 확인**: 동의대학교 화학환경공학부의 수능 반영 방법을 먼저 확인해야 합니다. 이 정보는 [수능 반영영역 및 가산점] 표를 참조할 수 있습니다.
+2. **반영 영역과 점수 계산**:
+   - 일반적으로 수능 반영은 국어, 수학, 영어 등급, 탐구 영역의 표준점수를 합산합니다.
+   - 예를 들어, 화학환경공학부가 다음과 같은 방식으로 수능을 반영한다고 가정해보면:
+     ```
+     국어(화법과작문 또는 언어와매체) 25% + 수학(확률과통계 또는 미적분 또는 기하) 25% + 영어 25% + 탐구(사회탐구 또는 과학탐구 - 2개 과목 합) 25%
+     ```
+3. **예시 계산**:
+   - 예를 들어, 국어 표준점수: 104
+   - 수학 표준점수: 108 (미적분)
+   - 영어 등급 점수: 4등급 (123)
+   - 탐구(사회탐구 + 과학탐구) 표준점수: 59 + 67 = 126
+   그러면 합산 점수는:
+   ```
+   (104 * 0.25) + (108 * 0.25) + (123 * 0.25) + (126 * 0.25) = 26 + 27 + 30.75 + 31.5 = 115.25
+   ```
+4. **최저합격선 확인**: 화학환경공학부의 최저합격선을 확인해야 합니다. 이 정보는 [수능성적 반영방법(가군, 나군, 다군 동일)] 표에서 찾을 수 있습니다.
+5. **결론**:
+   - 만약 115.25라는 점수가 화학환경공학부의 최저합격선보다 높다면, 지원 가능합니다.
+   - 그렇지 않다면, 지원이 불가능할 수 있습니다.
+따라서, 정확한 정보를 얻기 위해서는 동의대학교 공식 홈페이지나 입학처에 문의하는 것이 가장 확실합니다. 또한, 해당 학과의 최신 모집요강을 확인하여 최종적인 결정을 내리는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="D299" t="n">
+        <v>0.04407039188340111</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B300" t="inlineStr">
+        <is>
+          <t>영화학과의 2024학년도 수능(일반학생전형) 최종등록자의 평균 성적을 보면 다음과 같습니다:
+- 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합: 286.77 (표준 편차: 17.29)
+- 영어 등급: 3.66 (표준 편차: 1.24)
+- 수능 4개 영역 등급: 5.04 (표준 편차: 0.76)
+- 수능 4개 영역 (가산점 포함) 표준 변환 점수 합: 404.43 (표준 편차: 27.09)
+이를 통해, 귀하의 정시 성적이 4.2정도라면 영화학과에 합격할 가능성이 존재한다고 판단됩니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C300" t="inlineStr">
+        <is>
+          <t>4.2라는 점수는 일반적으로 좋은 성적입니다만, 실제 합격 가능성은 여러 요소에 따라 달라질 수 있습니다.
+1. **전형별 평균점수와 경쟁률**: 영화학과의 전형별 평균점수와 경쟁률을 확인해야 합니다. 예를 들어, 경쟁률이 높다면 4.2는 좋은 점수일 수 있지만, 낮다면 합격 가능성은 더 높아질 것입니다.
+2. **가산점**: 영화학과에 가산점이 있는 경우, 수능 4개 영역의 표준 변환 점수와 가산점을 모두 고려해야 합니다. 예를 들어, 가산점이 10점이라면 실제 합계는 더 높아집니다.
+3. **면접 성적**: 영화학과는 종종 면접을 통해 지원자의 창의성과 표현 능력을 평가하기 때문에, 면접 성적이 좋은 경우에도 합격 가능성은 높아질 수 있습니다.
+4. **전형별 특징**: 각 전형(예: &lt;나&gt;군 학생부종합, 실기/실적 위주 등)의 특징과 평균 점수를 확인해야 합니다. 예를 들어, &lt;나&gt;군 학생부종합에서는 면접 성적이 중요할 수 있습니다.
+5. **최근 입학사정관의 평가**: 최근 몇 년간의 입학사정관 평가 결과를 참고하면 도움이 될 수 있습니다.
+6. **개인 특성**: 창의성, 표현 능력 등 개인적인 특성이 합격에 영향을 미칠 수 있으므로, 이 부분도 고려해야 합니다.
+따라서 정확한 답변을 위해서는 영화학과의 전형별 평균점수와 경쟁률, 가산점 여부 등을 확인하시고, 해당 정보를 바탕으로 판단해 보시는 것이 좋습니다. 또한, 입학사정관의 평가 기준이나 면접 성적 등 추가적인 정보도 참고하시면 도움이 될 것입니다.
+추가적으로, 동의대학교의 공식 홈페이지나 입학처에 문의하시는 것도 좋은 방법입니다.</t>
+        </is>
+      </c>
+      <c r="D300" t="n">
+        <v>0.0855726924183218</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B301" t="inlineStr">
+        <is>
+          <t>면접 절차는 다음과 같습니다:
+1. 대기실 입실
+2. 신분 확인
+3. 고사장 앞 이동
+4. 고사장 입실
+5. 지원동기 및 학업계획 발표
+6. 학업역량, 전공적합성 관련 공통문항 발표 및 질의응답
+7. 기타 질의응답(제출서류 진위 여부 등)
+8. 퇴실</t>
+        </is>
+      </c>
+      <c r="C301" t="inlineStr">
+        <is>
+          <t>면접 절차는 다음과 같습니다:
+1. 대기실 입실
+2. 신분 확인
+3. 고사장 앞 이동
+4. 고사장 입실
+5. 지원동기 및 학업계획 발표
+6. 학업역량, 전공적합성 관련 공통문항 발표 및 질의응답
+7. 기타 질의응답 (제출서류 진위 여부 등)
+8. 퇴실
+이 절차는 모든 지원자에게 동일하게 적용되며, 개별면접 형식으로 진행됩니다.</t>
+        </is>
+      </c>
+      <c r="D301" t="n">
+        <v>0.74041351256795</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="inlineStr">
+        <is>
+          <t>GPT-4o-mini Average</t>
+        </is>
+      </c>
+      <c r="B302" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="C302" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D302" t="n">
+        <v>0.3551587308263098</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="inlineStr">
+        <is>
+          <t>Google Gemma-2-9b-it Average</t>
+        </is>
+      </c>
+      <c r="B303" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="C303" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D303" t="n">
+        <v>0.2368359587976734</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct Average</t>
+        </is>
+      </c>
+      <c r="B304" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="C304" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D304" t="n">
+        <v>0.1949009431366246</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="inlineStr">
+        <is>
           <t>Total Average</t>
         </is>
       </c>
-      <c r="B204" t="inlineStr">
+      <c r="B305" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="C204" t="inlineStr">
+      <c r="C305" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="D204" t="n">
-        <v>0.2959973448119916</v>
+      <c r="D305" t="n">
+        <v>0.2622985442535359</v>
       </c>
     </row>
   </sheetData>
